--- a/Planning Report/application sprint planner sprint1 23.12.19.xlsx
+++ b/Planning Report/application sprint planner sprint1 23.12.19.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A7A2F9-BC24-4A1B-979C-75ACE7A5E561}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070A661F-E250-49F5-9743-AEA356466E96}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4185" yWindow="1515" windowWidth="22395" windowHeight="12030" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="420" windowWidth="22395" windowHeight="12030" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="111">
   <si>
     <t>Create a Gantt Chart in this worksheet.
 Enter title of this project in cell B1. 
@@ -410,10 +410,19 @@
     <t>Additional Features</t>
   </si>
   <si>
-    <t>Task Requirement Labels</t>
+    <t>New User Skill Collection Bug</t>
   </si>
   <si>
-    <t>New User Skill Collection Bug</t>
+    <t xml:space="preserve">Hardening </t>
+  </si>
+  <si>
+    <t>Perform Survey</t>
+  </si>
+  <si>
+    <t>UC Form Help text</t>
+  </si>
+  <si>
+    <t>Reflection x 4</t>
   </si>
 </sst>
 </file>
@@ -1339,6 +1348,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1366,9 +1378,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1423,7 +1432,7 @@
     <cellStyle name="Warning Text" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="90">
     <dxf>
       <font>
         <b/>
@@ -2487,23 +2496,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -3090,20 +3082,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="90"/>
-      <tableStyleElement type="headerRow" dxfId="89"/>
-      <tableStyleElement type="firstRowStripe" dxfId="88"/>
+      <tableStyleElement type="wholeTable" dxfId="89"/>
+      <tableStyleElement type="headerRow" dxfId="88"/>
+      <tableStyleElement type="firstRowStripe" dxfId="87"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="87"/>
-      <tableStyleElement type="headerRow" dxfId="86"/>
-      <tableStyleElement type="totalRow" dxfId="85"/>
-      <tableStyleElement type="firstColumn" dxfId="84"/>
-      <tableStyleElement type="lastColumn" dxfId="83"/>
-      <tableStyleElement type="firstRowStripe" dxfId="82"/>
-      <tableStyleElement type="secondRowStripe" dxfId="81"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="80"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="79"/>
+      <tableStyleElement type="wholeTable" dxfId="86"/>
+      <tableStyleElement type="headerRow" dxfId="85"/>
+      <tableStyleElement type="totalRow" dxfId="84"/>
+      <tableStyleElement type="firstColumn" dxfId="83"/>
+      <tableStyleElement type="lastColumn" dxfId="82"/>
+      <tableStyleElement type="firstRowStripe" dxfId="81"/>
+      <tableStyleElement type="secondRowStripe" dxfId="80"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="79"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="78"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3256,8 +3248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:H117" totalsRowShown="0">
-  <autoFilter ref="B7:H117" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:H116" totalsRowShown="0">
+  <autoFilter ref="B7:H116" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -3267,10 +3259,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="74"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -3548,10 +3540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BM120"/>
+  <dimension ref="A1:BM119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+      <selection activeCell="Y73" sqref="Y73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3620,39 +3612,39 @@
       <c r="D2" s="18"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21"/>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="O2" s="64" t="s">
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="O2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
       <c r="S2" s="20"/>
-      <c r="T2" s="65" t="s">
+      <c r="T2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
       <c r="X2" s="20"/>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
       <c r="AC2" s="20"/>
-      <c r="AD2" s="57" t="s">
+      <c r="AD2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
     </row>
     <row r="3" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -3663,25 +3655,25 @@
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="61">
+      <c r="F3" s="60"/>
+      <c r="G3" s="62">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
         <v>43773</v>
       </c>
-      <c r="H3" s="62"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="44">
         <v>27</v>
       </c>
@@ -3770,14 +3762,14 @@
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
       <c r="J5" s="46">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>43800</v>
@@ -15980,7 +15972,7 @@
       <c r="H63" s="33"/>
       <c r="I63" s="26"/>
       <c r="J63" s="38" t="str">
-        <f t="shared" ref="J63:S73" ca="1" si="32">IF(AND($D63="Goal",J$5&gt;=$G63,J$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",J$5&gt;=$G63,J$5&lt;=$G63+$H63-1),1,""))</f>
+        <f t="shared" ref="J63:S72" ca="1" si="32">IF(AND($D63="Goal",J$5&gt;=$G63,J$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",J$5&gt;=$G63,J$5&lt;=$G63+$H63-1),1,""))</f>
         <v/>
       </c>
       <c r="K63" s="38" t="str">
@@ -16020,7 +16012,7 @@
         <v/>
       </c>
       <c r="T63" s="38" t="str">
-        <f t="shared" ref="T63:AC73" ca="1" si="33">IF(AND($D63="Goal",T$5&gt;=$G63,T$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",T$5&gt;=$G63,T$5&lt;=$G63+$H63-1),1,""))</f>
+        <f t="shared" ref="T63:AC72" ca="1" si="33">IF(AND($D63="Goal",T$5&gt;=$G63,T$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",T$5&gt;=$G63,T$5&lt;=$G63+$H63-1),1,""))</f>
         <v/>
       </c>
       <c r="U63" s="38" t="str">
@@ -16060,7 +16052,7 @@
         <v/>
       </c>
       <c r="AD63" s="38" t="str">
-        <f t="shared" ref="AD63:AM73" ca="1" si="34">IF(AND($D63="Goal",AD$5&gt;=$G63,AD$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",AD$5&gt;=$G63,AD$5&lt;=$G63+$H63-1),1,""))</f>
+        <f t="shared" ref="AD63:AM72" ca="1" si="34">IF(AND($D63="Goal",AD$5&gt;=$G63,AD$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",AD$5&gt;=$G63,AD$5&lt;=$G63+$H63-1),1,""))</f>
         <v/>
       </c>
       <c r="AE63" s="38" t="str">
@@ -16100,7 +16092,7 @@
         <v/>
       </c>
       <c r="AN63" s="38" t="str">
-        <f t="shared" ref="AN63:AW73" ca="1" si="35">IF(AND($D63="Goal",AN$5&gt;=$G63,AN$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",AN$5&gt;=$G63,AN$5&lt;=$G63+$H63-1),1,""))</f>
+        <f t="shared" ref="AN63:AW72" ca="1" si="35">IF(AND($D63="Goal",AN$5&gt;=$G63,AN$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",AN$5&gt;=$G63,AN$5&lt;=$G63+$H63-1),1,""))</f>
         <v/>
       </c>
       <c r="AO63" s="38" t="str">
@@ -16140,7 +16132,7 @@
         <v/>
       </c>
       <c r="AX63" s="38" t="str">
-        <f t="shared" ref="AX63:BG73" ca="1" si="36">IF(AND($D63="Goal",AX$5&gt;=$G63,AX$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",AX$5&gt;=$G63,AX$5&lt;=$G63+$H63-1),1,""))</f>
+        <f t="shared" ref="AX63:BG72" ca="1" si="36">IF(AND($D63="Goal",AX$5&gt;=$G63,AX$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",AX$5&gt;=$G63,AX$5&lt;=$G63+$H63-1),1,""))</f>
         <v/>
       </c>
       <c r="AY63" s="38" t="str">
@@ -16180,7 +16172,7 @@
         <v/>
       </c>
       <c r="BH63" s="38" t="str">
-        <f t="shared" ref="BH63:BM73" ca="1" si="37">IF(AND($D63="Goal",BH$5&gt;=$G63,BH$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",BH$5&gt;=$G63,BH$5&lt;=$G63+$H63-1),1,""))</f>
+        <f t="shared" ref="BH63:BM72" ca="1" si="37">IF(AND($D63="Goal",BH$5&gt;=$G63,BH$5&lt;=$G63+$H63-1),2,IF(AND($D63="Milestone",BH$5&gt;=$G63,BH$5&lt;=$G63+$H63-1),1,""))</f>
         <v/>
       </c>
       <c r="BI63" s="38" t="str">
@@ -16695,8 +16687,12 @@
         <v>2</v>
       </c>
       <c r="F66" s="31"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
+      <c r="G66" s="32">
+        <v>43829</v>
+      </c>
+      <c r="H66" s="33">
+        <v>1</v>
+      </c>
       <c r="I66" s="26"/>
       <c r="J66" s="38"/>
       <c r="K66" s="38"/>
@@ -16764,14 +16760,18 @@
         <v>63</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67" s="34">
         <v>2</v>
       </c>
       <c r="F67" s="31"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
+      <c r="G67" s="32">
+        <v>43829</v>
+      </c>
+      <c r="H67" s="33">
+        <v>1</v>
+      </c>
       <c r="I67" s="26"/>
       <c r="J67" s="38"/>
       <c r="K67" s="38"/>
@@ -16832,21 +16832,25 @@
     </row>
     <row r="68" spans="1:65" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
-      <c r="B68" s="66" t="s">
-        <v>106</v>
+      <c r="B68" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="C68" s="41" t="s">
         <v>63</v>
       </c>
       <c r="D68" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E68" s="34">
         <v>2</v>
       </c>
       <c r="F68" s="31"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="33"/>
+      <c r="G68" s="32">
+        <v>43829</v>
+      </c>
+      <c r="H68" s="33">
+        <v>1</v>
+      </c>
       <c r="I68" s="26"/>
       <c r="J68" s="38"/>
       <c r="K68" s="38"/>
@@ -16914,14 +16918,18 @@
         <v>63</v>
       </c>
       <c r="D69" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E69" s="34">
         <v>2</v>
       </c>
       <c r="F69" s="31"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="33"/>
+      <c r="G69" s="32">
+        <v>43815</v>
+      </c>
+      <c r="H69" s="33">
+        <v>1</v>
+      </c>
       <c r="I69" s="26"/>
       <c r="J69" s="38"/>
       <c r="K69" s="38"/>
@@ -17223,8 +17231,8 @@
     </row>
     <row r="71" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
-      <c r="B71" s="55" t="s">
-        <v>57</v>
+      <c r="B71" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="C71" s="41" t="s">
         <v>63</v>
@@ -17233,73 +17241,245 @@
         <v>17</v>
       </c>
       <c r="E71" s="34">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="33"/>
+      <c r="G71" s="32">
+        <v>43815</v>
+      </c>
+      <c r="H71" s="33">
+        <v>1</v>
+      </c>
       <c r="I71" s="26"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="38"/>
-      <c r="X71" s="38"/>
-      <c r="Y71" s="38"/>
-      <c r="Z71" s="38"/>
-      <c r="AA71" s="38"/>
-      <c r="AB71" s="38"/>
-      <c r="AC71" s="38"/>
-      <c r="AD71" s="38"/>
-      <c r="AE71" s="38"/>
-      <c r="AF71" s="38"/>
-      <c r="AG71" s="38"/>
-      <c r="AH71" s="38"/>
-      <c r="AI71" s="38"/>
-      <c r="AJ71" s="38"/>
-      <c r="AK71" s="38"/>
-      <c r="AL71" s="38"/>
-      <c r="AM71" s="38"/>
-      <c r="AN71" s="38"/>
-      <c r="AO71" s="38"/>
-      <c r="AP71" s="38"/>
-      <c r="AQ71" s="38"/>
-      <c r="AR71" s="38"/>
-      <c r="AS71" s="38"/>
-      <c r="AT71" s="38"/>
-      <c r="AU71" s="38"/>
-      <c r="AV71" s="38"/>
-      <c r="AW71" s="38"/>
-      <c r="AX71" s="38"/>
-      <c r="AY71" s="38"/>
-      <c r="AZ71" s="38"/>
-      <c r="BA71" s="38"/>
-      <c r="BB71" s="38"/>
-      <c r="BC71" s="38"/>
-      <c r="BD71" s="38"/>
-      <c r="BE71" s="38"/>
-      <c r="BF71" s="38"/>
-      <c r="BG71" s="38"/>
-      <c r="BH71" s="38"/>
-      <c r="BI71" s="38"/>
-      <c r="BJ71" s="38"/>
-      <c r="BK71" s="38"/>
-      <c r="BL71" s="38"/>
-      <c r="BM71" s="38"/>
+      <c r="J71" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="K71" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="L71" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="M71" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="N71" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="O71" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="P71" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="Q71" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="R71" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="S71" s="38" t="str">
+        <f t="shared" ca="1" si="32"/>
+        <v/>
+      </c>
+      <c r="T71" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="U71" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="V71" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="W71" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="X71" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="Y71" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="Z71" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AA71" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AB71" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AC71" s="38" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="AD71" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AE71" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AF71" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AG71" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AH71" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AI71" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AJ71" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AK71" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AL71" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AM71" s="38" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v/>
+      </c>
+      <c r="AN71" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AO71" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AP71" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AQ71" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AR71" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AS71" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AT71" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AU71" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AV71" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AW71" s="38" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="AX71" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="AY71" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="AZ71" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="BA71" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="BB71" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="BC71" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="BD71" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="BE71" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="BF71" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="BG71" s="38" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v/>
+      </c>
+      <c r="BH71" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="BI71" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="BJ71" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="BK71" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="BL71" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
+      <c r="BM71" s="38" t="str">
+        <f t="shared" ca="1" si="37"/>
+        <v/>
+      </c>
     </row>
     <row r="72" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="41" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C72" s="41" t="s">
         <v>63</v>
@@ -17308,14 +17488,12 @@
         <v>17</v>
       </c>
       <c r="E72" s="34">
-        <v>0.5</v>
+        <v>12</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="32">
-        <v>43815</v>
-      </c>
+      <c r="G72" s="32"/>
       <c r="H72" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72" s="26"/>
       <c r="J72" s="38" t="str">
@@ -17545,8 +17723,8 @@
     </row>
     <row r="73" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
-      <c r="B73" s="41" t="s">
-        <v>42</v>
+      <c r="B73" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="C73" s="41" t="s">
         <v>63</v>
@@ -17555,256 +17733,94 @@
         <v>17</v>
       </c>
       <c r="E73" s="34">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F73" s="31"/>
-      <c r="G73" s="32"/>
+      <c r="G73" s="32">
+        <v>43829</v>
+      </c>
       <c r="H73" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I73" s="26"/>
-      <c r="J73" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="K73" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="L73" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="M73" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="N73" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="O73" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="P73" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="Q73" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="R73" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="S73" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v/>
-      </c>
-      <c r="T73" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="U73" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="V73" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="W73" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="X73" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="Y73" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="Z73" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AA73" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AB73" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AC73" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
-        <v/>
-      </c>
-      <c r="AD73" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AE73" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AF73" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AG73" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AH73" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AI73" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AJ73" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AK73" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AL73" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AM73" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
-        <v/>
-      </c>
-      <c r="AN73" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AO73" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AP73" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AQ73" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AR73" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AS73" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AT73" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AU73" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AV73" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AW73" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
-      </c>
-      <c r="AX73" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="AY73" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="AZ73" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="BA73" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="BB73" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="BC73" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="BD73" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="BE73" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="BF73" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="BG73" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v/>
-      </c>
-      <c r="BH73" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="BI73" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="BJ73" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="BK73" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="BL73" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
-      <c r="BM73" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v/>
-      </c>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="38"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="38"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="38"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="38"/>
+      <c r="Y73" s="38"/>
+      <c r="Z73" s="38"/>
+      <c r="AA73" s="38"/>
+      <c r="AB73" s="38"/>
+      <c r="AC73" s="38"/>
+      <c r="AD73" s="38"/>
+      <c r="AE73" s="38"/>
+      <c r="AF73" s="38"/>
+      <c r="AG73" s="38"/>
+      <c r="AH73" s="38"/>
+      <c r="AI73" s="38"/>
+      <c r="AJ73" s="38"/>
+      <c r="AK73" s="38"/>
+      <c r="AL73" s="38"/>
+      <c r="AM73" s="38"/>
+      <c r="AN73" s="38"/>
+      <c r="AO73" s="38"/>
+      <c r="AP73" s="38"/>
+      <c r="AQ73" s="38"/>
+      <c r="AR73" s="38"/>
+      <c r="AS73" s="38"/>
+      <c r="AT73" s="38"/>
+      <c r="AU73" s="38"/>
+      <c r="AV73" s="38"/>
+      <c r="AW73" s="38"/>
+      <c r="AX73" s="38"/>
+      <c r="AY73" s="38"/>
+      <c r="AZ73" s="38"/>
+      <c r="BA73" s="38"/>
+      <c r="BB73" s="38"/>
+      <c r="BC73" s="38"/>
+      <c r="BD73" s="38"/>
+      <c r="BE73" s="38"/>
+      <c r="BF73" s="38"/>
+      <c r="BG73" s="38"/>
+      <c r="BH73" s="38"/>
+      <c r="BI73" s="38"/>
+      <c r="BJ73" s="38"/>
+      <c r="BK73" s="38"/>
+      <c r="BL73" s="38"/>
+      <c r="BM73" s="38"/>
     </row>
     <row r="74" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" s="55" t="s">
         <v>63</v>
       </c>
       <c r="D74" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F74" s="31"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="33"/>
+      <c r="G74" s="32">
+        <v>43829</v>
+      </c>
+      <c r="H74" s="33">
+        <v>1</v>
+      </c>
       <c r="I74" s="26"/>
       <c r="J74" s="38"/>
       <c r="K74" s="38"/>
@@ -17865,405 +17881,579 @@
     </row>
     <row r="75" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
-      <c r="B75" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" s="55"/>
-      <c r="D75" s="34"/>
+      <c r="B75" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>17</v>
+      </c>
       <c r="E75" s="34">
+        <v>4</v>
+      </c>
+      <c r="F75" s="31"/>
+      <c r="G75" s="32">
+        <v>43816</v>
+      </c>
+      <c r="H75" s="33">
         <v>1</v>
       </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="33"/>
       <c r="I75" s="26"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="38"/>
-      <c r="Z75" s="38"/>
-      <c r="AA75" s="38"/>
-      <c r="AB75" s="38"/>
-      <c r="AC75" s="38"/>
-      <c r="AD75" s="38"/>
-      <c r="AE75" s="38"/>
-      <c r="AF75" s="38"/>
-      <c r="AG75" s="38"/>
-      <c r="AH75" s="38"/>
-      <c r="AI75" s="38"/>
-      <c r="AJ75" s="38"/>
-      <c r="AK75" s="38"/>
-      <c r="AL75" s="38"/>
-      <c r="AM75" s="38"/>
-      <c r="AN75" s="38"/>
-      <c r="AO75" s="38"/>
-      <c r="AP75" s="38"/>
-      <c r="AQ75" s="38"/>
-      <c r="AR75" s="38"/>
-      <c r="AS75" s="38"/>
-      <c r="AT75" s="38"/>
-      <c r="AU75" s="38"/>
-      <c r="AV75" s="38"/>
-      <c r="AW75" s="38"/>
-      <c r="AX75" s="38"/>
-      <c r="AY75" s="38"/>
-      <c r="AZ75" s="38"/>
-      <c r="BA75" s="38"/>
-      <c r="BB75" s="38"/>
-      <c r="BC75" s="38"/>
-      <c r="BD75" s="38"/>
-      <c r="BE75" s="38"/>
-      <c r="BF75" s="38"/>
-      <c r="BG75" s="38"/>
-      <c r="BH75" s="38"/>
-      <c r="BI75" s="38"/>
-      <c r="BJ75" s="38"/>
-      <c r="BK75" s="38"/>
-      <c r="BL75" s="38"/>
-      <c r="BM75" s="38"/>
+      <c r="J75" s="38" t="str">
+        <f t="shared" ref="J75:AO75" ca="1" si="40">IF(AND($D75="Goal",J$5&gt;=$G75,J$5&lt;=$G75+$H75-1),2,IF(AND($D75="Milestone",J$5&gt;=$G75,J$5&lt;=$G75+$H75-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="L75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="M75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="N75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="O75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="P75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="Q75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="R75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="S75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="T75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="U75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="V75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="W75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="X75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="Y75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="Z75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AA75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AB75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AC75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AD75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AE75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AF75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AG75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AH75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AI75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AJ75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AK75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AL75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AM75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AN75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AO75" s="38" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v/>
+      </c>
+      <c r="AP75" s="38" t="str">
+        <f t="shared" ref="AP75:BM75" ca="1" si="41">IF(AND($D75="Goal",AP$5&gt;=$G75,AP$5&lt;=$G75+$H75-1),2,IF(AND($D75="Milestone",AP$5&gt;=$G75,AP$5&lt;=$G75+$H75-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="AR75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="AS75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="AT75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="AU75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="AV75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="AW75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="AX75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="AY75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="AZ75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BA75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BB75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BC75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BD75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BE75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BF75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BG75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BH75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BI75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BJ75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BK75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BL75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
+      <c r="BM75" s="38" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v/>
+      </c>
     </row>
     <row r="76" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
-      <c r="B76" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="34">
-        <v>1</v>
-      </c>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
       <c r="F76" s="31"/>
       <c r="G76" s="32"/>
       <c r="H76" s="33"/>
       <c r="I76" s="26"/>
-      <c r="J76" s="38" t="str">
-        <f t="shared" ref="J76:AO76" ca="1" si="40">IF(AND($D76="Goal",J$5&gt;=$G76,J$5&lt;=$G76+$H76-1),2,IF(AND($D76="Milestone",J$5&gt;=$G76,J$5&lt;=$G76+$H76-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="L76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="M76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="N76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="O76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="P76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="Q76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="R76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="S76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="T76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="U76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="V76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="W76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="X76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="Y76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="Z76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AA76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AB76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AC76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AD76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AE76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AF76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AG76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AH76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AI76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AJ76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AK76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AL76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AM76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AN76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AO76" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
-      </c>
-      <c r="AP76" s="38" t="str">
-        <f t="shared" ref="AP76:BM76" ca="1" si="41">IF(AND($D76="Goal",AP$5&gt;=$G76,AP$5&lt;=$G76+$H76-1),2,IF(AND($D76="Milestone",AP$5&gt;=$G76,AP$5&lt;=$G76+$H76-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="AR76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="AS76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="AT76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="AU76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="AV76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="AW76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="AX76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="AY76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="AZ76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BA76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BB76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BC76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BD76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BE76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BF76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BG76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BH76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BI76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BJ76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BK76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BL76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
-      <c r="BM76" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v/>
-      </c>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
+      <c r="Z76" s="38"/>
+      <c r="AA76" s="38"/>
+      <c r="AB76" s="38"/>
+      <c r="AC76" s="38"/>
+      <c r="AD76" s="38"/>
+      <c r="AE76" s="38"/>
+      <c r="AF76" s="38"/>
+      <c r="AG76" s="38"/>
+      <c r="AH76" s="38"/>
+      <c r="AI76" s="38"/>
+      <c r="AJ76" s="38"/>
+      <c r="AK76" s="38"/>
+      <c r="AL76" s="38"/>
+      <c r="AM76" s="38"/>
+      <c r="AN76" s="38"/>
+      <c r="AO76" s="38"/>
+      <c r="AP76" s="38"/>
+      <c r="AQ76" s="38"/>
+      <c r="AR76" s="38"/>
+      <c r="AS76" s="38"/>
+      <c r="AT76" s="38"/>
+      <c r="AU76" s="38"/>
+      <c r="AV76" s="38"/>
+      <c r="AW76" s="38"/>
+      <c r="AX76" s="38"/>
+      <c r="AY76" s="38"/>
+      <c r="AZ76" s="38"/>
+      <c r="BA76" s="38"/>
+      <c r="BB76" s="38"/>
+      <c r="BC76" s="38"/>
+      <c r="BD76" s="38"/>
+      <c r="BE76" s="38"/>
+      <c r="BF76" s="38"/>
+      <c r="BG76" s="38"/>
+      <c r="BH76" s="38"/>
+      <c r="BI76" s="38"/>
+      <c r="BJ76" s="38"/>
+      <c r="BK76" s="38"/>
+      <c r="BL76" s="38"/>
+      <c r="BM76" s="38"/>
     </row>
-    <row r="77" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="34"/>
+    <row r="77" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="15"/>
+      <c r="B77" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="54"/>
+      <c r="D77" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="E77" s="34"/>
       <c r="F77" s="31"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="33"/>
+      <c r="G77" s="32">
+        <v>43890</v>
+      </c>
+      <c r="H77" s="33">
+        <v>1</v>
+      </c>
       <c r="I77" s="26"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="38"/>
-      <c r="S77" s="38"/>
-      <c r="T77" s="38"/>
-      <c r="U77" s="38"/>
-      <c r="V77" s="38"/>
-      <c r="W77" s="38"/>
-      <c r="X77" s="38"/>
-      <c r="Y77" s="38"/>
-      <c r="Z77" s="38"/>
-      <c r="AA77" s="38"/>
-      <c r="AB77" s="38"/>
-      <c r="AC77" s="38"/>
-      <c r="AD77" s="38"/>
-      <c r="AE77" s="38"/>
-      <c r="AF77" s="38"/>
-      <c r="AG77" s="38"/>
-      <c r="AH77" s="38"/>
-      <c r="AI77" s="38"/>
-      <c r="AJ77" s="38"/>
-      <c r="AK77" s="38"/>
-      <c r="AL77" s="38"/>
-      <c r="AM77" s="38"/>
-      <c r="AN77" s="38"/>
-      <c r="AO77" s="38"/>
-      <c r="AP77" s="38"/>
-      <c r="AQ77" s="38"/>
-      <c r="AR77" s="38"/>
-      <c r="AS77" s="38"/>
-      <c r="AT77" s="38"/>
-      <c r="AU77" s="38"/>
-      <c r="AV77" s="38"/>
-      <c r="AW77" s="38"/>
-      <c r="AX77" s="38"/>
-      <c r="AY77" s="38"/>
-      <c r="AZ77" s="38"/>
-      <c r="BA77" s="38"/>
-      <c r="BB77" s="38"/>
-      <c r="BC77" s="38"/>
-      <c r="BD77" s="38"/>
-      <c r="BE77" s="38"/>
-      <c r="BF77" s="38"/>
-      <c r="BG77" s="38"/>
-      <c r="BH77" s="38"/>
-      <c r="BI77" s="38"/>
-      <c r="BJ77" s="38"/>
-      <c r="BK77" s="38"/>
-      <c r="BL77" s="38"/>
-      <c r="BM77" s="38"/>
+      <c r="J77" s="38" t="str">
+        <f t="shared" ref="J77:S83" ca="1" si="42">IF(AND($D77="Goal",J$5&gt;=$G77,J$5&lt;=$G77+$H77-1),2,IF(AND($D77="Milestone",J$5&gt;=$G77,J$5&lt;=$G77+$H77-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K77" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="L77" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="M77" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="N77" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="O77" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="P77" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="Q77" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="R77" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="S77" s="38" t="str">
+        <f t="shared" ca="1" si="42"/>
+        <v/>
+      </c>
+      <c r="T77" s="38" t="str">
+        <f t="shared" ref="T77:AC83" ca="1" si="43">IF(AND($D77="Goal",T$5&gt;=$G77,T$5&lt;=$G77+$H77-1),2,IF(AND($D77="Milestone",T$5&gt;=$G77,T$5&lt;=$G77+$H77-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U77" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="V77" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="W77" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="X77" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="Y77" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="Z77" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="AA77" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="AB77" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="AC77" s="38" t="str">
+        <f t="shared" ca="1" si="43"/>
+        <v/>
+      </c>
+      <c r="AD77" s="38" t="str">
+        <f t="shared" ref="AD77:AM83" ca="1" si="44">IF(AND($D77="Goal",AD$5&gt;=$G77,AD$5&lt;=$G77+$H77-1),2,IF(AND($D77="Milestone",AD$5&gt;=$G77,AD$5&lt;=$G77+$H77-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE77" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AF77" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AG77" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AH77" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AI77" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AJ77" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AK77" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AL77" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AM77" s="38" t="str">
+        <f t="shared" ca="1" si="44"/>
+        <v/>
+      </c>
+      <c r="AN77" s="38" t="str">
+        <f t="shared" ref="AN77:AW83" ca="1" si="45">IF(AND($D77="Goal",AN$5&gt;=$G77,AN$5&lt;=$G77+$H77-1),2,IF(AND($D77="Milestone",AN$5&gt;=$G77,AN$5&lt;=$G77+$H77-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO77" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AP77" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AQ77" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AR77" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AS77" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AT77" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AU77" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AV77" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AW77" s="38" t="str">
+        <f t="shared" ca="1" si="45"/>
+        <v/>
+      </c>
+      <c r="AX77" s="38" t="str">
+        <f t="shared" ref="AX77:BG83" ca="1" si="46">IF(AND($D77="Goal",AX$5&gt;=$G77,AX$5&lt;=$G77+$H77-1),2,IF(AND($D77="Milestone",AX$5&gt;=$G77,AX$5&lt;=$G77+$H77-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY77" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="AZ77" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BA77" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BB77" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BC77" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BD77" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BE77" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BF77" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BG77" s="38" t="str">
+        <f t="shared" ca="1" si="46"/>
+        <v/>
+      </c>
+      <c r="BH77" s="38" t="str">
+        <f t="shared" ref="BH77:BM83" ca="1" si="47">IF(AND($D77="Goal",BH$5&gt;=$G77,BH$5&lt;=$G77+$H77-1),2,IF(AND($D77="Milestone",BH$5&gt;=$G77,BH$5&lt;=$G77+$H77-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI77" s="38" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
+      <c r="BJ77" s="38" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
+      <c r="BK77" s="38" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
+      <c r="BL77" s="38" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
+      <c r="BM77" s="38" t="str">
+        <f t="shared" ca="1" si="47"/>
+        <v/>
+      </c>
     </row>
-    <row r="78" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
-      <c r="B78" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="34" t="s">
-        <v>16</v>
-      </c>
+      <c r="B78" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="53"/>
+      <c r="D78" s="34"/>
       <c r="E78" s="34"/>
       <c r="F78" s="31"/>
       <c r="G78" s="32">
-        <v>43890</v>
+        <v>43836</v>
       </c>
       <c r="H78" s="33">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I78" s="26"/>
       <c r="J78" s="38" t="str">
-        <f t="shared" ref="J78:S84" ca="1" si="42">IF(AND($D78="Goal",J$5&gt;=$G78,J$5&lt;=$G78+$H78-1),2,IF(AND($D78="Milestone",J$5&gt;=$G78,J$5&lt;=$G78+$H78-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="K78" s="38" t="str">
@@ -18303,7 +18493,7 @@
         <v/>
       </c>
       <c r="T78" s="38" t="str">
-        <f t="shared" ref="T78:AC84" ca="1" si="43">IF(AND($D78="Goal",T$5&gt;=$G78,T$5&lt;=$G78+$H78-1),2,IF(AND($D78="Milestone",T$5&gt;=$G78,T$5&lt;=$G78+$H78-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="U78" s="38" t="str">
@@ -18343,7 +18533,7 @@
         <v/>
       </c>
       <c r="AD78" s="38" t="str">
-        <f t="shared" ref="AD78:AM84" ca="1" si="44">IF(AND($D78="Goal",AD$5&gt;=$G78,AD$5&lt;=$G78+$H78-1),2,IF(AND($D78="Milestone",AD$5&gt;=$G78,AD$5&lt;=$G78+$H78-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AE78" s="38" t="str">
@@ -18383,7 +18573,7 @@
         <v/>
       </c>
       <c r="AN78" s="38" t="str">
-        <f t="shared" ref="AN78:AW84" ca="1" si="45">IF(AND($D78="Goal",AN$5&gt;=$G78,AN$5&lt;=$G78+$H78-1),2,IF(AND($D78="Milestone",AN$5&gt;=$G78,AN$5&lt;=$G78+$H78-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AO78" s="38" t="str">
@@ -18423,7 +18613,7 @@
         <v/>
       </c>
       <c r="AX78" s="38" t="str">
-        <f t="shared" ref="AX78:BG84" ca="1" si="46">IF(AND($D78="Goal",AX$5&gt;=$G78,AX$5&lt;=$G78+$H78-1),2,IF(AND($D78="Milestone",AX$5&gt;=$G78,AX$5&lt;=$G78+$H78-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AY78" s="38" t="str">
@@ -18463,7 +18653,7 @@
         <v/>
       </c>
       <c r="BH78" s="38" t="str">
-        <f t="shared" ref="BH78:BM84" ca="1" si="47">IF(AND($D78="Goal",BH$5&gt;=$G78,BH$5&lt;=$G78+$H78-1),2,IF(AND($D78="Milestone",BH$5&gt;=$G78,BH$5&lt;=$G78+$H78-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="BI78" s="38" t="str">
@@ -18490,14 +18680,14 @@
     <row r="79" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C79" s="53"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34"/>
       <c r="F79" s="31"/>
       <c r="G79" s="32">
-        <v>43836</v>
+        <v>43850</v>
       </c>
       <c r="H79" s="33">
         <v>14</v>
@@ -18731,14 +18921,14 @@
     <row r="80" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C80" s="53"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34"/>
       <c r="F80" s="31"/>
       <c r="G80" s="32">
-        <v>43850</v>
+        <v>43864</v>
       </c>
       <c r="H80" s="33">
         <v>14</v>
@@ -18972,14 +19162,14 @@
     <row r="81" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="53" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C81" s="53"/>
       <c r="D81" s="34"/>
       <c r="E81" s="34"/>
       <c r="F81" s="31"/>
       <c r="G81" s="32">
-        <v>43864</v>
+        <v>43878</v>
       </c>
       <c r="H81" s="33">
         <v>14</v>
@@ -19211,19 +19401,23 @@
       </c>
     </row>
     <row r="82" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82" s="53"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="34">
+        <v>12</v>
+      </c>
       <c r="F82" s="31"/>
-      <c r="G82" s="32">
-        <v>43878</v>
-      </c>
+      <c r="G82" s="32"/>
       <c r="H82" s="33">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I82" s="26"/>
       <c r="J82" s="38" t="str">
@@ -19454,7 +19648,7 @@
     <row r="83" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C83" s="41" t="s">
         <v>63</v>
@@ -19468,7 +19662,7 @@
       <c r="F83" s="31"/>
       <c r="G83" s="32"/>
       <c r="H83" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" s="26"/>
       <c r="J83" s="38" t="str">
@@ -19698,253 +19892,85 @@
     </row>
     <row r="84" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
-      <c r="B84" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84" s="41" t="s">
+      <c r="B84" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="55" t="s">
         <v>63</v>
       </c>
       <c r="D84" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E84" s="34">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="32"/>
       <c r="H84" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84" s="26"/>
-      <c r="J84" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="K84" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="L84" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="M84" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="N84" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="O84" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="P84" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="Q84" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="R84" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="S84" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v/>
-      </c>
-      <c r="T84" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="U84" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="V84" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="W84" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="X84" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="Y84" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="Z84" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="AA84" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="AB84" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="AC84" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v/>
-      </c>
-      <c r="AD84" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AE84" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AF84" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AG84" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AH84" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AI84" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AJ84" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AK84" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AL84" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AM84" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
-        <v/>
-      </c>
-      <c r="AN84" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AO84" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AP84" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AQ84" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AR84" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AS84" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AT84" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AU84" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AV84" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AW84" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
-      </c>
-      <c r="AX84" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="AY84" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="AZ84" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BA84" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BB84" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BC84" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BD84" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BE84" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BF84" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BG84" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v/>
-      </c>
-      <c r="BH84" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v/>
-      </c>
-      <c r="BI84" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v/>
-      </c>
-      <c r="BJ84" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v/>
-      </c>
-      <c r="BK84" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v/>
-      </c>
-      <c r="BL84" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v/>
-      </c>
-      <c r="BM84" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v/>
-      </c>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="38"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="38"/>
+      <c r="W84" s="38"/>
+      <c r="X84" s="38"/>
+      <c r="Y84" s="38"/>
+      <c r="Z84" s="38"/>
+      <c r="AA84" s="38"/>
+      <c r="AB84" s="38"/>
+      <c r="AC84" s="38"/>
+      <c r="AD84" s="38"/>
+      <c r="AE84" s="38"/>
+      <c r="AF84" s="38"/>
+      <c r="AG84" s="38"/>
+      <c r="AH84" s="38"/>
+      <c r="AI84" s="38"/>
+      <c r="AJ84" s="38"/>
+      <c r="AK84" s="38"/>
+      <c r="AL84" s="38"/>
+      <c r="AM84" s="38"/>
+      <c r="AN84" s="38"/>
+      <c r="AO84" s="38"/>
+      <c r="AP84" s="38"/>
+      <c r="AQ84" s="38"/>
+      <c r="AR84" s="38"/>
+      <c r="AS84" s="38"/>
+      <c r="AT84" s="38"/>
+      <c r="AU84" s="38"/>
+      <c r="AV84" s="38"/>
+      <c r="AW84" s="38"/>
+      <c r="AX84" s="38"/>
+      <c r="AY84" s="38"/>
+      <c r="AZ84" s="38"/>
+      <c r="BA84" s="38"/>
+      <c r="BB84" s="38"/>
+      <c r="BC84" s="38"/>
+      <c r="BD84" s="38"/>
+      <c r="BE84" s="38"/>
+      <c r="BF84" s="38"/>
+      <c r="BG84" s="38"/>
+      <c r="BH84" s="38"/>
+      <c r="BI84" s="38"/>
+      <c r="BJ84" s="38"/>
+      <c r="BK84" s="38"/>
+      <c r="BL84" s="38"/>
+      <c r="BM84" s="38"/>
     </row>
     <row r="85" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C85" s="55" t="s">
         <v>63</v>
@@ -20021,7 +20047,7 @@
     <row r="86" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86" s="55" t="s">
         <v>63</v>
@@ -20097,85 +20123,253 @@
     </row>
     <row r="87" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
-      <c r="B87" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" s="55" t="s">
+      <c r="B87" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="41" t="s">
         <v>63</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E87" s="34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F87" s="31"/>
       <c r="G87" s="32"/>
       <c r="H87" s="33">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I87" s="26"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="38"/>
-      <c r="Q87" s="38"/>
-      <c r="R87" s="38"/>
-      <c r="S87" s="38"/>
-      <c r="T87" s="38"/>
-      <c r="U87" s="38"/>
-      <c r="V87" s="38"/>
-      <c r="W87" s="38"/>
-      <c r="X87" s="38"/>
-      <c r="Y87" s="38"/>
-      <c r="Z87" s="38"/>
-      <c r="AA87" s="38"/>
-      <c r="AB87" s="38"/>
-      <c r="AC87" s="38"/>
-      <c r="AD87" s="38"/>
-      <c r="AE87" s="38"/>
-      <c r="AF87" s="38"/>
-      <c r="AG87" s="38"/>
-      <c r="AH87" s="38"/>
-      <c r="AI87" s="38"/>
-      <c r="AJ87" s="38"/>
-      <c r="AK87" s="38"/>
-      <c r="AL87" s="38"/>
-      <c r="AM87" s="38"/>
-      <c r="AN87" s="38"/>
-      <c r="AO87" s="38"/>
-      <c r="AP87" s="38"/>
-      <c r="AQ87" s="38"/>
-      <c r="AR87" s="38"/>
-      <c r="AS87" s="38"/>
-      <c r="AT87" s="38"/>
-      <c r="AU87" s="38"/>
-      <c r="AV87" s="38"/>
-      <c r="AW87" s="38"/>
-      <c r="AX87" s="38"/>
-      <c r="AY87" s="38"/>
-      <c r="AZ87" s="38"/>
-      <c r="BA87" s="38"/>
-      <c r="BB87" s="38"/>
-      <c r="BC87" s="38"/>
-      <c r="BD87" s="38"/>
-      <c r="BE87" s="38"/>
-      <c r="BF87" s="38"/>
-      <c r="BG87" s="38"/>
-      <c r="BH87" s="38"/>
-      <c r="BI87" s="38"/>
-      <c r="BJ87" s="38"/>
-      <c r="BK87" s="38"/>
-      <c r="BL87" s="38"/>
-      <c r="BM87" s="38"/>
+      <c r="J87" s="38" t="str">
+        <f t="shared" ref="J87:S94" ca="1" si="48">IF(AND($D87="Goal",J$5&gt;=$G87,J$5&lt;=$G87+$H87-1),2,IF(AND($D87="Milestone",J$5&gt;=$G87,J$5&lt;=$G87+$H87-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K87" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="L87" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="M87" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="N87" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="O87" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="P87" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="Q87" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="R87" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="S87" s="38" t="str">
+        <f t="shared" ca="1" si="48"/>
+        <v/>
+      </c>
+      <c r="T87" s="38" t="str">
+        <f t="shared" ref="T87:AC94" ca="1" si="49">IF(AND($D87="Goal",T$5&gt;=$G87,T$5&lt;=$G87+$H87-1),2,IF(AND($D87="Milestone",T$5&gt;=$G87,T$5&lt;=$G87+$H87-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U87" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="V87" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="W87" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="X87" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Y87" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="Z87" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AA87" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AB87" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AC87" s="38" t="str">
+        <f t="shared" ca="1" si="49"/>
+        <v/>
+      </c>
+      <c r="AD87" s="38" t="str">
+        <f t="shared" ref="AD87:AM94" ca="1" si="50">IF(AND($D87="Goal",AD$5&gt;=$G87,AD$5&lt;=$G87+$H87-1),2,IF(AND($D87="Milestone",AD$5&gt;=$G87,AD$5&lt;=$G87+$H87-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE87" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AF87" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AG87" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AH87" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AI87" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AJ87" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AK87" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AL87" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AM87" s="38" t="str">
+        <f t="shared" ca="1" si="50"/>
+        <v/>
+      </c>
+      <c r="AN87" s="38" t="str">
+        <f t="shared" ref="AN87:AW94" ca="1" si="51">IF(AND($D87="Goal",AN$5&gt;=$G87,AN$5&lt;=$G87+$H87-1),2,IF(AND($D87="Milestone",AN$5&gt;=$G87,AN$5&lt;=$G87+$H87-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO87" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AP87" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AQ87" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AR87" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AS87" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AT87" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AU87" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AV87" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AW87" s="38" t="str">
+        <f t="shared" ca="1" si="51"/>
+        <v/>
+      </c>
+      <c r="AX87" s="38" t="str">
+        <f t="shared" ref="AX87:BG94" ca="1" si="52">IF(AND($D87="Goal",AX$5&gt;=$G87,AX$5&lt;=$G87+$H87-1),2,IF(AND($D87="Milestone",AX$5&gt;=$G87,AX$5&lt;=$G87+$H87-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY87" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="AZ87" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BA87" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BB87" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BC87" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BD87" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BE87" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BF87" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BG87" s="38" t="str">
+        <f t="shared" ca="1" si="52"/>
+        <v/>
+      </c>
+      <c r="BH87" s="38" t="str">
+        <f t="shared" ref="BH87:BM94" ca="1" si="53">IF(AND($D87="Goal",BH$5&gt;=$G87,BH$5&lt;=$G87+$H87-1),2,IF(AND($D87="Milestone",BH$5&gt;=$G87,BH$5&lt;=$G87+$H87-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI87" s="38" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="BJ87" s="38" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="BK87" s="38" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="BL87" s="38" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
+      <c r="BM87" s="38" t="str">
+        <f t="shared" ca="1" si="53"/>
+        <v/>
+      </c>
     </row>
     <row r="88" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C88" s="41" t="s">
         <v>63</v>
@@ -20189,11 +20383,11 @@
       <c r="F88" s="31"/>
       <c r="G88" s="32"/>
       <c r="H88" s="33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I88" s="26"/>
       <c r="J88" s="38" t="str">
-        <f t="shared" ref="J88:S95" ca="1" si="48">IF(AND($D88="Goal",J$5&gt;=$G88,J$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",J$5&gt;=$G88,J$5&lt;=$G88+$H88-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="K88" s="38" t="str">
@@ -20233,7 +20427,7 @@
         <v/>
       </c>
       <c r="T88" s="38" t="str">
-        <f t="shared" ref="T88:AC95" ca="1" si="49">IF(AND($D88="Goal",T$5&gt;=$G88,T$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",T$5&gt;=$G88,T$5&lt;=$G88+$H88-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="U88" s="38" t="str">
@@ -20273,7 +20467,7 @@
         <v/>
       </c>
       <c r="AD88" s="38" t="str">
-        <f t="shared" ref="AD88:AM95" ca="1" si="50">IF(AND($D88="Goal",AD$5&gt;=$G88,AD$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",AD$5&gt;=$G88,AD$5&lt;=$G88+$H88-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AE88" s="38" t="str">
@@ -20313,7 +20507,7 @@
         <v/>
       </c>
       <c r="AN88" s="38" t="str">
-        <f t="shared" ref="AN88:AW95" ca="1" si="51">IF(AND($D88="Goal",AN$5&gt;=$G88,AN$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",AN$5&gt;=$G88,AN$5&lt;=$G88+$H88-1),1,""))</f>
+        <f t="shared" ca="1" si="51"/>
         <v/>
       </c>
       <c r="AO88" s="38" t="str">
@@ -20353,7 +20547,7 @@
         <v/>
       </c>
       <c r="AX88" s="38" t="str">
-        <f t="shared" ref="AX88:BG95" ca="1" si="52">IF(AND($D88="Goal",AX$5&gt;=$G88,AX$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",AX$5&gt;=$G88,AX$5&lt;=$G88+$H88-1),1,""))</f>
+        <f t="shared" ca="1" si="52"/>
         <v/>
       </c>
       <c r="AY88" s="38" t="str">
@@ -20393,7 +20587,7 @@
         <v/>
       </c>
       <c r="BH88" s="38" t="str">
-        <f t="shared" ref="BH88:BM95" ca="1" si="53">IF(AND($D88="Goal",BH$5&gt;=$G88,BH$5&lt;=$G88+$H88-1),2,IF(AND($D88="Milestone",BH$5&gt;=$G88,BH$5&lt;=$G88+$H88-1),1,""))</f>
+        <f t="shared" ca="1" si="53"/>
         <v/>
       </c>
       <c r="BI88" s="38" t="str">
@@ -20420,7 +20614,7 @@
     <row r="89" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C89" s="41" t="s">
         <v>63</v>
@@ -20429,7 +20623,7 @@
         <v>17</v>
       </c>
       <c r="E89" s="34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F89" s="31"/>
       <c r="G89" s="32"/>
@@ -20665,13 +20859,13 @@
     <row r="90" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C90" s="41" t="s">
         <v>63</v>
       </c>
       <c r="D90" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E90" s="34">
         <v>6</v>
@@ -20910,7 +21104,7 @@
     <row r="91" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="41" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C91" s="41" t="s">
         <v>63</v>
@@ -21155,16 +21349,16 @@
     <row r="92" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="41" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C92" s="41" t="s">
         <v>63</v>
       </c>
       <c r="D92" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E92" s="34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F92" s="31"/>
       <c r="G92" s="32"/>
@@ -21400,7 +21594,7 @@
     <row r="93" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="41" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C93" s="41" t="s">
         <v>63</v>
@@ -21409,7 +21603,7 @@
         <v>17</v>
       </c>
       <c r="E93" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93" s="31"/>
       <c r="G93" s="32"/>
@@ -21645,7 +21839,7 @@
     <row r="94" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="41" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="C94" s="41" t="s">
         <v>63</v>
@@ -21654,12 +21848,12 @@
         <v>17</v>
       </c>
       <c r="E94" s="34">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F94" s="31"/>
       <c r="G94" s="32"/>
       <c r="H94" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94" s="26"/>
       <c r="J94" s="38" t="str">
@@ -21889,335 +22083,330 @@
     </row>
     <row r="95" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
-      <c r="B95" s="41" t="s">
-        <v>42</v>
+      <c r="B95" s="56" t="s">
+        <v>108</v>
       </c>
       <c r="C95" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="D95" s="34" t="s">
-        <v>17</v>
-      </c>
+      <c r="D95" s="34"/>
       <c r="E95" s="34">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F95" s="31"/>
       <c r="G95" s="32"/>
-      <c r="H95" s="33">
-        <v>3</v>
-      </c>
+      <c r="H95" s="33"/>
       <c r="I95" s="26"/>
-      <c r="J95" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="K95" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="L95" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="M95" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="N95" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="O95" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="P95" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="Q95" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="R95" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="S95" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v/>
-      </c>
-      <c r="T95" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="U95" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="V95" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="W95" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="X95" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="Y95" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="Z95" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AA95" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AB95" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AC95" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AD95" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AE95" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AF95" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AG95" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AH95" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AI95" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AJ95" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AK95" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AL95" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AM95" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AN95" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AO95" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AP95" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AQ95" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AR95" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AS95" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AT95" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AU95" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AV95" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AW95" s="38" t="str">
-        <f t="shared" ca="1" si="51"/>
-        <v/>
-      </c>
-      <c r="AX95" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AY95" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="AZ95" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BA95" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BB95" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BC95" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BD95" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BE95" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BF95" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BG95" s="38" t="str">
-        <f t="shared" ca="1" si="52"/>
-        <v/>
-      </c>
-      <c r="BH95" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="BI95" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="BJ95" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="BK95" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="BL95" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
-      <c r="BM95" s="38" t="str">
-        <f t="shared" ca="1" si="53"/>
-        <v/>
-      </c>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="38"/>
+      <c r="M95" s="38"/>
+      <c r="N95" s="38"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
+      <c r="Q95" s="38"/>
+      <c r="R95" s="38"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="38"/>
+      <c r="V95" s="38"/>
+      <c r="W95" s="38"/>
+      <c r="X95" s="38"/>
+      <c r="Y95" s="38"/>
+      <c r="Z95" s="38"/>
+      <c r="AA95" s="38"/>
+      <c r="AB95" s="38"/>
+      <c r="AC95" s="38"/>
+      <c r="AD95" s="38"/>
+      <c r="AE95" s="38"/>
+      <c r="AF95" s="38"/>
+      <c r="AG95" s="38"/>
+      <c r="AH95" s="38"/>
+      <c r="AI95" s="38"/>
+      <c r="AJ95" s="38"/>
+      <c r="AK95" s="38"/>
+      <c r="AL95" s="38"/>
+      <c r="AM95" s="38"/>
+      <c r="AN95" s="38"/>
+      <c r="AO95" s="38"/>
+      <c r="AP95" s="38"/>
+      <c r="AQ95" s="38"/>
+      <c r="AR95" s="38"/>
+      <c r="AS95" s="38"/>
+      <c r="AT95" s="38"/>
+      <c r="AU95" s="38"/>
+      <c r="AV95" s="38"/>
+      <c r="AW95" s="38"/>
+      <c r="AX95" s="38"/>
+      <c r="AY95" s="38"/>
+      <c r="AZ95" s="38"/>
+      <c r="BA95" s="38"/>
+      <c r="BB95" s="38"/>
+      <c r="BC95" s="38"/>
+      <c r="BD95" s="38"/>
+      <c r="BE95" s="38"/>
+      <c r="BF95" s="38"/>
+      <c r="BG95" s="38"/>
+      <c r="BH95" s="38"/>
+      <c r="BI95" s="38"/>
+      <c r="BJ95" s="38"/>
+      <c r="BK95" s="38"/>
+      <c r="BL95" s="38"/>
+      <c r="BM95" s="38"/>
     </row>
     <row r="96" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
-      <c r="B96" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" s="55"/>
+      <c r="B96" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="D96" s="34"/>
       <c r="E96" s="34">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F96" s="31"/>
       <c r="G96" s="32"/>
       <c r="H96" s="33"/>
       <c r="I96" s="26"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="38"/>
-      <c r="M96" s="38"/>
-      <c r="N96" s="38"/>
-      <c r="O96" s="38"/>
-      <c r="P96" s="38"/>
-      <c r="Q96" s="38"/>
-      <c r="R96" s="38"/>
-      <c r="S96" s="38"/>
-      <c r="T96" s="38"/>
-      <c r="U96" s="38"/>
-      <c r="V96" s="38"/>
-      <c r="W96" s="38"/>
-      <c r="X96" s="38"/>
-      <c r="Y96" s="38"/>
-      <c r="Z96" s="38"/>
-      <c r="AA96" s="38"/>
-      <c r="AB96" s="38"/>
-      <c r="AC96" s="38"/>
-      <c r="AD96" s="38"/>
-      <c r="AE96" s="38"/>
-      <c r="AF96" s="38"/>
-      <c r="AG96" s="38"/>
-      <c r="AH96" s="38"/>
-      <c r="AI96" s="38"/>
-      <c r="AJ96" s="38"/>
-      <c r="AK96" s="38"/>
-      <c r="AL96" s="38"/>
-      <c r="AM96" s="38"/>
-      <c r="AN96" s="38"/>
-      <c r="AO96" s="38"/>
-      <c r="AP96" s="38"/>
-      <c r="AQ96" s="38"/>
-      <c r="AR96" s="38"/>
-      <c r="AS96" s="38"/>
-      <c r="AT96" s="38"/>
-      <c r="AU96" s="38"/>
-      <c r="AV96" s="38"/>
-      <c r="AW96" s="38"/>
-      <c r="AX96" s="38"/>
-      <c r="AY96" s="38"/>
-      <c r="AZ96" s="38"/>
-      <c r="BA96" s="38"/>
-      <c r="BB96" s="38"/>
-      <c r="BC96" s="38"/>
-      <c r="BD96" s="38"/>
-      <c r="BE96" s="38"/>
-      <c r="BF96" s="38"/>
-      <c r="BG96" s="38"/>
-      <c r="BH96" s="38"/>
-      <c r="BI96" s="38"/>
-      <c r="BJ96" s="38"/>
-      <c r="BK96" s="38"/>
-      <c r="BL96" s="38"/>
-      <c r="BM96" s="38"/>
+      <c r="J96" s="38" t="str">
+        <f t="shared" ref="J96:S104" ca="1" si="54">IF(AND($D96="Goal",J$5&gt;=$G96,J$5&lt;=$G96+$H96-1),2,IF(AND($D96="Milestone",J$5&gt;=$G96,J$5&lt;=$G96+$H96-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K96" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="L96" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="M96" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="N96" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="O96" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="P96" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="Q96" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="R96" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="S96" s="38" t="str">
+        <f t="shared" ca="1" si="54"/>
+        <v/>
+      </c>
+      <c r="T96" s="38" t="str">
+        <f t="shared" ref="T96:AC104" ca="1" si="55">IF(AND($D96="Goal",T$5&gt;=$G96,T$5&lt;=$G96+$H96-1),2,IF(AND($D96="Milestone",T$5&gt;=$G96,T$5&lt;=$G96+$H96-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U96" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="V96" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="W96" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="X96" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="Y96" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="Z96" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AA96" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AB96" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AC96" s="38" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="AD96" s="38" t="str">
+        <f t="shared" ref="AD96:AM104" ca="1" si="56">IF(AND($D96="Goal",AD$5&gt;=$G96,AD$5&lt;=$G96+$H96-1),2,IF(AND($D96="Milestone",AD$5&gt;=$G96,AD$5&lt;=$G96+$H96-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE96" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="AF96" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="AG96" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="AH96" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="AI96" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="AJ96" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="AK96" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="AL96" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="AM96" s="38" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v/>
+      </c>
+      <c r="AN96" s="38" t="str">
+        <f t="shared" ref="AN96:AW104" ca="1" si="57">IF(AND($D96="Goal",AN$5&gt;=$G96,AN$5&lt;=$G96+$H96-1),2,IF(AND($D96="Milestone",AN$5&gt;=$G96,AN$5&lt;=$G96+$H96-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO96" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AP96" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AQ96" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AR96" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AS96" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AT96" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AU96" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AV96" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AW96" s="38" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v/>
+      </c>
+      <c r="AX96" s="38" t="str">
+        <f t="shared" ref="AX96:BG104" ca="1" si="58">IF(AND($D96="Goal",AX$5&gt;=$G96,AX$5&lt;=$G96+$H96-1),2,IF(AND($D96="Milestone",AX$5&gt;=$G96,AX$5&lt;=$G96+$H96-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY96" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="AZ96" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BA96" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BB96" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BC96" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BD96" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BE96" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BF96" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BG96" s="38" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v/>
+      </c>
+      <c r="BH96" s="38" t="str">
+        <f t="shared" ref="BH96:BM104" ca="1" si="59">IF(AND($D96="Goal",BH$5&gt;=$G96,BH$5&lt;=$G96+$H96-1),2,IF(AND($D96="Milestone",BH$5&gt;=$G96,BH$5&lt;=$G96+$H96-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI96" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BJ96" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BK96" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BL96" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
+      <c r="BM96" s="38" t="str">
+        <f t="shared" ca="1" si="59"/>
+        <v/>
+      </c>
     </row>
     <row r="97" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
       <c r="D97" s="34"/>
-      <c r="E97" s="34">
-        <f>SUBTOTAL(109,E83:E96)</f>
-        <v>130</v>
-      </c>
+      <c r="E97" s="34"/>
       <c r="F97" s="31"/>
       <c r="G97" s="32"/>
       <c r="H97" s="33"/>
       <c r="I97" s="26"/>
       <c r="J97" s="38" t="str">
-        <f t="shared" ref="J97:S105" ca="1" si="54">IF(AND($D97="Goal",J$5&gt;=$G97,J$5&lt;=$G97+$H97-1),2,IF(AND($D97="Milestone",J$5&gt;=$G97,J$5&lt;=$G97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="54"/>
         <v/>
       </c>
       <c r="K97" s="38" t="str">
@@ -22257,7 +22446,7 @@
         <v/>
       </c>
       <c r="T97" s="38" t="str">
-        <f t="shared" ref="T97:AC105" ca="1" si="55">IF(AND($D97="Goal",T$5&gt;=$G97,T$5&lt;=$G97+$H97-1),2,IF(AND($D97="Milestone",T$5&gt;=$G97,T$5&lt;=$G97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="U97" s="38" t="str">
@@ -22297,7 +22486,7 @@
         <v/>
       </c>
       <c r="AD97" s="38" t="str">
-        <f t="shared" ref="AD97:AM105" ca="1" si="56">IF(AND($D97="Goal",AD$5&gt;=$G97,AD$5&lt;=$G97+$H97-1),2,IF(AND($D97="Milestone",AD$5&gt;=$G97,AD$5&lt;=$G97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="56"/>
         <v/>
       </c>
       <c r="AE97" s="38" t="str">
@@ -22337,7 +22526,7 @@
         <v/>
       </c>
       <c r="AN97" s="38" t="str">
-        <f t="shared" ref="AN97:AW105" ca="1" si="57">IF(AND($D97="Goal",AN$5&gt;=$G97,AN$5&lt;=$G97+$H97-1),2,IF(AND($D97="Milestone",AN$5&gt;=$G97,AN$5&lt;=$G97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="57"/>
         <v/>
       </c>
       <c r="AO97" s="38" t="str">
@@ -22377,7 +22566,7 @@
         <v/>
       </c>
       <c r="AX97" s="38" t="str">
-        <f t="shared" ref="AX97:BG105" ca="1" si="58">IF(AND($D97="Goal",AX$5&gt;=$G97,AX$5&lt;=$G97+$H97-1),2,IF(AND($D97="Milestone",AX$5&gt;=$G97,AX$5&lt;=$G97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="58"/>
         <v/>
       </c>
       <c r="AY97" s="38" t="str">
@@ -22417,7 +22606,7 @@
         <v/>
       </c>
       <c r="BH97" s="38" t="str">
-        <f t="shared" ref="BH97:BM105" ca="1" si="59">IF(AND($D97="Goal",BH$5&gt;=$G97,BH$5&lt;=$G97+$H97-1),2,IF(AND($D97="Milestone",BH$5&gt;=$G97,BH$5&lt;=$G97+$H97-1),1,""))</f>
+        <f t="shared" ca="1" si="59"/>
         <v/>
       </c>
       <c r="BI97" s="38" t="str">
@@ -22441,15 +22630,23 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="34"/>
+    <row r="98" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="15"/>
+      <c r="B98" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98" s="54"/>
+      <c r="D98" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="E98" s="34"/>
       <c r="F98" s="31"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="33"/>
+      <c r="G98" s="32">
+        <v>43948</v>
+      </c>
+      <c r="H98" s="33">
+        <v>1</v>
+      </c>
       <c r="I98" s="26"/>
       <c r="J98" s="38" t="str">
         <f t="shared" ca="1" si="54"/>
@@ -22676,22 +22873,20 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
-      <c r="B99" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C99" s="54"/>
-      <c r="D99" s="34" t="s">
-        <v>16</v>
-      </c>
+      <c r="B99" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="53"/>
+      <c r="D99" s="34"/>
       <c r="E99" s="34"/>
       <c r="F99" s="31"/>
       <c r="G99" s="32">
-        <v>43948</v>
+        <v>43892</v>
       </c>
       <c r="H99" s="33">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I99" s="26"/>
       <c r="J99" s="38" t="str">
@@ -22922,14 +23117,14 @@
     <row r="100" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C100" s="53"/>
       <c r="D100" s="34"/>
       <c r="E100" s="34"/>
       <c r="F100" s="31"/>
       <c r="G100" s="32">
-        <v>43892</v>
+        <v>43906</v>
       </c>
       <c r="H100" s="33">
         <v>14</v>
@@ -23163,14 +23358,14 @@
     <row r="101" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C101" s="53"/>
       <c r="D101" s="34"/>
       <c r="E101" s="34"/>
       <c r="F101" s="31"/>
       <c r="G101" s="32">
-        <v>43906</v>
+        <v>43922</v>
       </c>
       <c r="H101" s="33">
         <v>14</v>
@@ -23404,14 +23599,14 @@
     <row r="102" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="53" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C102" s="53"/>
       <c r="D102" s="34"/>
       <c r="E102" s="34"/>
       <c r="F102" s="31"/>
       <c r="G102" s="32">
-        <v>43922</v>
+        <v>43927</v>
       </c>
       <c r="H102" s="33">
         <v>14</v>
@@ -23643,19 +23838,23 @@
       </c>
     </row>
     <row r="103" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="53"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="34">
+        <v>8</v>
+      </c>
       <c r="F103" s="31"/>
-      <c r="G103" s="32">
-        <v>43927</v>
-      </c>
+      <c r="G103" s="32"/>
       <c r="H103" s="33">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I103" s="26"/>
       <c r="J103" s="38" t="str">
@@ -23886,16 +24085,16 @@
     <row r="104" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C104" s="41" t="s">
         <v>64</v>
       </c>
       <c r="D104" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E104" s="34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F104" s="31"/>
       <c r="G104" s="32"/>
@@ -24131,7 +24330,7 @@
     <row r="105" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="41" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C105" s="41" t="s">
         <v>64</v>
@@ -24140,7 +24339,7 @@
         <v>17</v>
       </c>
       <c r="E105" s="34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F105" s="31"/>
       <c r="G105" s="32"/>
@@ -24148,571 +24347,515 @@
         <v>2</v>
       </c>
       <c r="I105" s="26"/>
-      <c r="J105" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="K105" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="L105" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="M105" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="N105" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="O105" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="P105" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="Q105" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="R105" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="S105" s="38" t="str">
-        <f t="shared" ca="1" si="54"/>
-        <v/>
-      </c>
-      <c r="T105" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="U105" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="V105" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="W105" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="X105" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="Y105" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="Z105" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AA105" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AB105" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AC105" s="38" t="str">
-        <f t="shared" ca="1" si="55"/>
-        <v/>
-      </c>
-      <c r="AD105" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="AE105" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="AF105" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="AG105" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="AH105" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="AI105" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="AJ105" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="AK105" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="AL105" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="AM105" s="38" t="str">
-        <f t="shared" ca="1" si="56"/>
-        <v/>
-      </c>
-      <c r="AN105" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AO105" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AP105" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AQ105" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AR105" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AS105" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AT105" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AU105" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AV105" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AW105" s="38" t="str">
-        <f t="shared" ca="1" si="57"/>
-        <v/>
-      </c>
-      <c r="AX105" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AY105" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="AZ105" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BA105" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BB105" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BC105" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BD105" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BE105" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BF105" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BG105" s="38" t="str">
-        <f t="shared" ca="1" si="58"/>
-        <v/>
-      </c>
-      <c r="BH105" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BI105" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BJ105" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BK105" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BL105" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
-      <c r="BM105" s="38" t="str">
-        <f t="shared" ca="1" si="59"/>
-        <v/>
-      </c>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38"/>
+      <c r="N105" s="38"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
+      <c r="Q105" s="38"/>
+      <c r="R105" s="38"/>
+      <c r="S105" s="38"/>
+      <c r="T105" s="38"/>
+      <c r="U105" s="38"/>
+      <c r="V105" s="38"/>
+      <c r="W105" s="38"/>
+      <c r="X105" s="38"/>
+      <c r="Y105" s="38"/>
+      <c r="Z105" s="38"/>
+      <c r="AA105" s="38"/>
+      <c r="AB105" s="38"/>
+      <c r="AC105" s="38"/>
+      <c r="AD105" s="38"/>
+      <c r="AE105" s="38"/>
+      <c r="AF105" s="38"/>
+      <c r="AG105" s="38"/>
+      <c r="AH105" s="38"/>
+      <c r="AI105" s="38"/>
+      <c r="AJ105" s="38"/>
+      <c r="AK105" s="38"/>
+      <c r="AL105" s="38"/>
+      <c r="AM105" s="38"/>
+      <c r="AN105" s="38"/>
+      <c r="AO105" s="38"/>
+      <c r="AP105" s="38"/>
+      <c r="AQ105" s="38"/>
+      <c r="AR105" s="38"/>
+      <c r="AS105" s="38"/>
+      <c r="AT105" s="38"/>
+      <c r="AU105" s="38"/>
+      <c r="AV105" s="38"/>
+      <c r="AW105" s="38"/>
+      <c r="AX105" s="38"/>
+      <c r="AY105" s="38"/>
+      <c r="AZ105" s="38"/>
+      <c r="BA105" s="38"/>
+      <c r="BB105" s="38"/>
+      <c r="BC105" s="38"/>
+      <c r="BD105" s="38"/>
+      <c r="BE105" s="38"/>
+      <c r="BF105" s="38"/>
+      <c r="BG105" s="38"/>
+      <c r="BH105" s="38"/>
+      <c r="BI105" s="38"/>
+      <c r="BJ105" s="38"/>
+      <c r="BK105" s="38"/>
+      <c r="BL105" s="38"/>
+      <c r="BM105" s="38"/>
     </row>
     <row r="106" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="15"/>
       <c r="B106" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D106" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E106" s="34">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F106" s="31"/>
       <c r="G106" s="32"/>
       <c r="H106" s="33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I106" s="26"/>
-      <c r="J106" s="38"/>
-      <c r="K106" s="38"/>
-      <c r="L106" s="38"/>
-      <c r="M106" s="38"/>
-      <c r="N106" s="38"/>
-      <c r="O106" s="38"/>
-      <c r="P106" s="38"/>
-      <c r="Q106" s="38"/>
-      <c r="R106" s="38"/>
-      <c r="S106" s="38"/>
-      <c r="T106" s="38"/>
-      <c r="U106" s="38"/>
-      <c r="V106" s="38"/>
-      <c r="W106" s="38"/>
-      <c r="X106" s="38"/>
-      <c r="Y106" s="38"/>
-      <c r="Z106" s="38"/>
-      <c r="AA106" s="38"/>
-      <c r="AB106" s="38"/>
-      <c r="AC106" s="38"/>
-      <c r="AD106" s="38"/>
-      <c r="AE106" s="38"/>
-      <c r="AF106" s="38"/>
-      <c r="AG106" s="38"/>
-      <c r="AH106" s="38"/>
-      <c r="AI106" s="38"/>
-      <c r="AJ106" s="38"/>
-      <c r="AK106" s="38"/>
-      <c r="AL106" s="38"/>
-      <c r="AM106" s="38"/>
-      <c r="AN106" s="38"/>
-      <c r="AO106" s="38"/>
-      <c r="AP106" s="38"/>
-      <c r="AQ106" s="38"/>
-      <c r="AR106" s="38"/>
-      <c r="AS106" s="38"/>
-      <c r="AT106" s="38"/>
-      <c r="AU106" s="38"/>
-      <c r="AV106" s="38"/>
-      <c r="AW106" s="38"/>
-      <c r="AX106" s="38"/>
-      <c r="AY106" s="38"/>
-      <c r="AZ106" s="38"/>
-      <c r="BA106" s="38"/>
-      <c r="BB106" s="38"/>
-      <c r="BC106" s="38"/>
-      <c r="BD106" s="38"/>
-      <c r="BE106" s="38"/>
-      <c r="BF106" s="38"/>
-      <c r="BG106" s="38"/>
-      <c r="BH106" s="38"/>
-      <c r="BI106" s="38"/>
-      <c r="BJ106" s="38"/>
-      <c r="BK106" s="38"/>
-      <c r="BL106" s="38"/>
-      <c r="BM106" s="38"/>
+      <c r="J106" s="38" t="str">
+        <f t="shared" ref="J106:AO106" ca="1" si="60">IF(AND($D106="Goal",J$5&gt;=$G106,J$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",J$5&gt;=$G106,J$5&lt;=$G106+$H106-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="L106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="M106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="N106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="O106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="P106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="Q106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="R106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="S106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="T106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="U106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="V106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="W106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="X106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="Y106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="Z106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AA106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AB106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AC106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AD106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AE106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AF106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AG106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AH106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AI106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AJ106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AK106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AL106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AM106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AN106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AO106" s="38" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="AP106" s="38" t="str">
+        <f t="shared" ref="AP106:BM106" ca="1" si="61">IF(AND($D106="Goal",AP$5&gt;=$G106,AP$5&lt;=$G106+$H106-1),2,IF(AND($D106="Milestone",AP$5&gt;=$G106,AP$5&lt;=$G106+$H106-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AQ106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AR106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AS106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AT106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AU106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AV106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AW106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AX106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AY106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="AZ106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BA106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BB106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BC106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BD106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BE106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BF106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BG106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BH106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BI106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BJ106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BK106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BL106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
+      <c r="BM106" s="38" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v/>
+      </c>
     </row>
     <row r="107" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
+      <c r="A107" s="14"/>
       <c r="B107" s="41" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C107" s="41" t="s">
         <v>63</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E107" s="34">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F107" s="31"/>
       <c r="G107" s="32"/>
       <c r="H107" s="33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I107" s="26"/>
-      <c r="J107" s="38" t="str">
-        <f t="shared" ref="J107:AO107" ca="1" si="60">IF(AND($D107="Goal",J$5&gt;=$G107,J$5&lt;=$G107+$H107-1),2,IF(AND($D107="Milestone",J$5&gt;=$G107,J$5&lt;=$G107+$H107-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="K107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="L107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="M107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="N107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="O107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="P107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="Q107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="R107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="S107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="T107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="U107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="V107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="W107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="X107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="Y107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="Z107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AA107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AB107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AC107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AD107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AE107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AF107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AG107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AH107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AI107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AJ107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AK107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AL107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AM107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AN107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AO107" s="38" t="str">
-        <f t="shared" ca="1" si="60"/>
-        <v/>
-      </c>
-      <c r="AP107" s="38" t="str">
-        <f t="shared" ref="AP107:BM107" ca="1" si="61">IF(AND($D107="Goal",AP$5&gt;=$G107,AP$5&lt;=$G107+$H107-1),2,IF(AND($D107="Milestone",AP$5&gt;=$G107,AP$5&lt;=$G107+$H107-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AQ107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AR107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AS107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AT107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AU107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AV107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AW107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AX107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AY107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="AZ107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BA107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BB107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BC107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BD107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BE107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BF107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BG107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BH107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BI107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BJ107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BK107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BL107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
-      </c>
-      <c r="BM107" s="38" t="str">
-        <f t="shared" ca="1" si="61"/>
-        <v/>
+      <c r="J107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="M107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="N107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="O107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="P107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="R107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="S107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="T107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="U107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="V107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="X107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL107" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM107" s="38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C108" s="41" t="s">
         <v>63</v>
       </c>
       <c r="D108" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E108" s="34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F108" s="31"/>
       <c r="G108" s="32"/>
       <c r="H108" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I108" s="26"/>
       <c r="J108" s="38" t="s">
@@ -24887,7 +25030,7 @@
     <row r="109" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="41" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C109" s="41" t="s">
         <v>63</v>
@@ -24896,187 +25039,243 @@
         <v>17</v>
       </c>
       <c r="E109" s="34">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F109" s="31"/>
       <c r="G109" s="32"/>
       <c r="H109" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I109" s="26"/>
-      <c r="J109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="L109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="M109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="N109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="O109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="P109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="R109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="S109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="T109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="U109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="V109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="X109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL109" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM109" s="38" t="s">
-        <v>56</v>
+      <c r="J109" s="38" t="str">
+        <f t="shared" ref="J109:S110" ca="1" si="62">IF(AND($D109="Goal",J$5&gt;=$G109,J$5&lt;=$G109+$H109-1),2,IF(AND($D109="Milestone",J$5&gt;=$G109,J$5&lt;=$G109+$H109-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K109" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="L109" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="M109" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="N109" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="O109" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="P109" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="Q109" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="R109" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="S109" s="38" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v/>
+      </c>
+      <c r="T109" s="38" t="str">
+        <f t="shared" ref="T109:AC110" ca="1" si="63">IF(AND($D109="Goal",T$5&gt;=$G109,T$5&lt;=$G109+$H109-1),2,IF(AND($D109="Milestone",T$5&gt;=$G109,T$5&lt;=$G109+$H109-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U109" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="V109" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="W109" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="X109" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="Y109" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="Z109" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AA109" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AB109" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AC109" s="38" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v/>
+      </c>
+      <c r="AD109" s="38" t="str">
+        <f t="shared" ref="AD109:AM110" ca="1" si="64">IF(AND($D109="Goal",AD$5&gt;=$G109,AD$5&lt;=$G109+$H109-1),2,IF(AND($D109="Milestone",AD$5&gt;=$G109,AD$5&lt;=$G109+$H109-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE109" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AF109" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AG109" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AH109" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AI109" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AJ109" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AK109" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AL109" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AM109" s="38" t="str">
+        <f t="shared" ca="1" si="64"/>
+        <v/>
+      </c>
+      <c r="AN109" s="38" t="str">
+        <f t="shared" ref="AN109:AW110" ca="1" si="65">IF(AND($D109="Goal",AN$5&gt;=$G109,AN$5&lt;=$G109+$H109-1),2,IF(AND($D109="Milestone",AN$5&gt;=$G109,AN$5&lt;=$G109+$H109-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO109" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AP109" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AQ109" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AR109" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AS109" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AT109" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AU109" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AV109" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AW109" s="38" t="str">
+        <f t="shared" ca="1" si="65"/>
+        <v/>
+      </c>
+      <c r="AX109" s="38" t="str">
+        <f t="shared" ref="AX109:BG110" ca="1" si="66">IF(AND($D109="Goal",AX$5&gt;=$G109,AX$5&lt;=$G109+$H109-1),2,IF(AND($D109="Milestone",AX$5&gt;=$G109,AX$5&lt;=$G109+$H109-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY109" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="AZ109" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BA109" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BB109" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BC109" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BD109" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BE109" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BF109" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BG109" s="38" t="str">
+        <f t="shared" ca="1" si="66"/>
+        <v/>
+      </c>
+      <c r="BH109" s="38" t="str">
+        <f t="shared" ref="BH109:BM110" ca="1" si="67">IF(AND($D109="Goal",BH$5&gt;=$G109,BH$5&lt;=$G109+$H109-1),2,IF(AND($D109="Milestone",BH$5&gt;=$G109,BH$5&lt;=$G109+$H109-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI109" s="38" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="BJ109" s="38" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="BK109" s="38" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="BL109" s="38" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
+      </c>
+      <c r="BM109" s="38" t="str">
+        <f t="shared" ca="1" si="67"/>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="41" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C110" s="41" t="s">
         <v>63</v>
@@ -25085,7 +25284,7 @@
         <v>17</v>
       </c>
       <c r="E110" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F110" s="31"/>
       <c r="G110" s="32"/>
@@ -25094,7 +25293,7 @@
       </c>
       <c r="I110" s="26"/>
       <c r="J110" s="38" t="str">
-        <f t="shared" ref="J110:S111" ca="1" si="62">IF(AND($D110="Goal",J$5&gt;=$G110,J$5&lt;=$G110+$H110-1),2,IF(AND($D110="Milestone",J$5&gt;=$G110,J$5&lt;=$G110+$H110-1),1,""))</f>
+        <f t="shared" ca="1" si="62"/>
         <v/>
       </c>
       <c r="K110" s="38" t="str">
@@ -25134,7 +25333,7 @@
         <v/>
       </c>
       <c r="T110" s="38" t="str">
-        <f t="shared" ref="T110:AC111" ca="1" si="63">IF(AND($D110="Goal",T$5&gt;=$G110,T$5&lt;=$G110+$H110-1),2,IF(AND($D110="Milestone",T$5&gt;=$G110,T$5&lt;=$G110+$H110-1),1,""))</f>
+        <f t="shared" ca="1" si="63"/>
         <v/>
       </c>
       <c r="U110" s="38" t="str">
@@ -25174,7 +25373,7 @@
         <v/>
       </c>
       <c r="AD110" s="38" t="str">
-        <f t="shared" ref="AD110:AM111" ca="1" si="64">IF(AND($D110="Goal",AD$5&gt;=$G110,AD$5&lt;=$G110+$H110-1),2,IF(AND($D110="Milestone",AD$5&gt;=$G110,AD$5&lt;=$G110+$H110-1),1,""))</f>
+        <f t="shared" ca="1" si="64"/>
         <v/>
       </c>
       <c r="AE110" s="38" t="str">
@@ -25214,7 +25413,7 @@
         <v/>
       </c>
       <c r="AN110" s="38" t="str">
-        <f t="shared" ref="AN110:AW111" ca="1" si="65">IF(AND($D110="Goal",AN$5&gt;=$G110,AN$5&lt;=$G110+$H110-1),2,IF(AND($D110="Milestone",AN$5&gt;=$G110,AN$5&lt;=$G110+$H110-1),1,""))</f>
+        <f t="shared" ca="1" si="65"/>
         <v/>
       </c>
       <c r="AO110" s="38" t="str">
@@ -25254,7 +25453,7 @@
         <v/>
       </c>
       <c r="AX110" s="38" t="str">
-        <f t="shared" ref="AX110:BG111" ca="1" si="66">IF(AND($D110="Goal",AX$5&gt;=$G110,AX$5&lt;=$G110+$H110-1),2,IF(AND($D110="Milestone",AX$5&gt;=$G110,AX$5&lt;=$G110+$H110-1),1,""))</f>
+        <f t="shared" ca="1" si="66"/>
         <v/>
       </c>
       <c r="AY110" s="38" t="str">
@@ -25294,7 +25493,7 @@
         <v/>
       </c>
       <c r="BH110" s="38" t="str">
-        <f t="shared" ref="BH110:BM111" ca="1" si="67">IF(AND($D110="Goal",BH$5&gt;=$G110,BH$5&lt;=$G110+$H110-1),2,IF(AND($D110="Milestone",BH$5&gt;=$G110,BH$5&lt;=$G110+$H110-1),1,""))</f>
+        <f t="shared" ca="1" si="67"/>
         <v/>
       </c>
       <c r="BI110" s="38" t="str">
@@ -25321,7 +25520,7 @@
     <row r="111" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C111" s="41" t="s">
         <v>63</v>
@@ -25330,514 +25529,504 @@
         <v>17</v>
       </c>
       <c r="E111" s="34">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F111" s="31"/>
       <c r="G111" s="32"/>
       <c r="H111" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111" s="26"/>
-      <c r="J111" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="K111" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="L111" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="M111" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="N111" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="O111" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="P111" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="Q111" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="R111" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="S111" s="38" t="str">
-        <f t="shared" ca="1" si="62"/>
-        <v/>
-      </c>
-      <c r="T111" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="U111" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="V111" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="W111" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="X111" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="Y111" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="Z111" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AA111" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AB111" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AC111" s="38" t="str">
-        <f t="shared" ca="1" si="63"/>
-        <v/>
-      </c>
-      <c r="AD111" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AE111" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AF111" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AG111" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AH111" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AI111" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AJ111" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AK111" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AL111" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AM111" s="38" t="str">
-        <f t="shared" ca="1" si="64"/>
-        <v/>
-      </c>
-      <c r="AN111" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AO111" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AP111" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AQ111" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AR111" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AS111" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AT111" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AU111" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AV111" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AW111" s="38" t="str">
-        <f t="shared" ca="1" si="65"/>
-        <v/>
-      </c>
-      <c r="AX111" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AY111" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="AZ111" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BA111" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BB111" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BC111" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BD111" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BE111" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BF111" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BG111" s="38" t="str">
-        <f t="shared" ca="1" si="66"/>
-        <v/>
-      </c>
-      <c r="BH111" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="BI111" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="BJ111" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="BK111" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="BL111" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
-      </c>
-      <c r="BM111" s="38" t="str">
-        <f t="shared" ca="1" si="67"/>
-        <v/>
+      <c r="J111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="K111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="M111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="N111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="O111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="P111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="R111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="S111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="T111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="U111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="V111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="X111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL111" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM111" s="38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
-      <c r="B112" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C112" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D112" s="34" t="s">
-        <v>17</v>
-      </c>
+      <c r="B112" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="55"/>
+      <c r="D112" s="34"/>
       <c r="E112" s="34">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F112" s="31"/>
       <c r="G112" s="32"/>
-      <c r="H112" s="33">
-        <v>3</v>
-      </c>
+      <c r="H112" s="33"/>
       <c r="I112" s="26"/>
-      <c r="J112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="K112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="L112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="M112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="N112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="O112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="P112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="R112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="S112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="T112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="U112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="V112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="W112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="X112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL112" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM112" s="38" t="s">
-        <v>56</v>
-      </c>
+      <c r="J112" s="38"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="38"/>
+      <c r="M112" s="38"/>
+      <c r="N112" s="38"/>
+      <c r="O112" s="38"/>
+      <c r="P112" s="38"/>
+      <c r="Q112" s="38"/>
+      <c r="R112" s="38"/>
+      <c r="S112" s="38"/>
+      <c r="T112" s="38"/>
+      <c r="U112" s="38"/>
+      <c r="V112" s="38"/>
+      <c r="W112" s="38"/>
+      <c r="X112" s="38"/>
+      <c r="Y112" s="38"/>
+      <c r="Z112" s="38"/>
+      <c r="AA112" s="38"/>
+      <c r="AB112" s="38"/>
+      <c r="AC112" s="38"/>
+      <c r="AD112" s="38"/>
+      <c r="AE112" s="38"/>
+      <c r="AF112" s="38"/>
+      <c r="AG112" s="38"/>
+      <c r="AH112" s="38"/>
+      <c r="AI112" s="38"/>
+      <c r="AJ112" s="38"/>
+      <c r="AK112" s="38"/>
+      <c r="AL112" s="38"/>
+      <c r="AM112" s="38"/>
+      <c r="AN112" s="38"/>
+      <c r="AO112" s="38"/>
+      <c r="AP112" s="38"/>
+      <c r="AQ112" s="38"/>
+      <c r="AR112" s="38"/>
+      <c r="AS112" s="38"/>
+      <c r="AT112" s="38"/>
+      <c r="AU112" s="38"/>
+      <c r="AV112" s="38"/>
+      <c r="AW112" s="38"/>
+      <c r="AX112" s="38"/>
+      <c r="AY112" s="38"/>
+      <c r="AZ112" s="38"/>
+      <c r="BA112" s="38"/>
+      <c r="BB112" s="38"/>
+      <c r="BC112" s="38"/>
+      <c r="BD112" s="38"/>
+      <c r="BE112" s="38"/>
+      <c r="BF112" s="38"/>
+      <c r="BG112" s="38"/>
+      <c r="BH112" s="38"/>
+      <c r="BI112" s="38"/>
+      <c r="BJ112" s="38"/>
+      <c r="BK112" s="38"/>
+      <c r="BL112" s="38"/>
+      <c r="BM112" s="38"/>
     </row>
     <row r="113" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C113" s="55"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
       <c r="D113" s="34"/>
       <c r="E113" s="34">
-        <v>46</v>
+        <f>SUBTOTAL(109,E103:E112)</f>
+        <v>128</v>
       </c>
       <c r="F113" s="31"/>
       <c r="G113" s="32"/>
       <c r="H113" s="33"/>
       <c r="I113" s="26"/>
-      <c r="J113" s="38"/>
-      <c r="K113" s="38"/>
-      <c r="L113" s="38"/>
-      <c r="M113" s="38"/>
-      <c r="N113" s="38"/>
-      <c r="O113" s="38"/>
-      <c r="P113" s="38"/>
-      <c r="Q113" s="38"/>
-      <c r="R113" s="38"/>
-      <c r="S113" s="38"/>
-      <c r="T113" s="38"/>
-      <c r="U113" s="38"/>
-      <c r="V113" s="38"/>
-      <c r="W113" s="38"/>
-      <c r="X113" s="38"/>
-      <c r="Y113" s="38"/>
-      <c r="Z113" s="38"/>
-      <c r="AA113" s="38"/>
-      <c r="AB113" s="38"/>
-      <c r="AC113" s="38"/>
-      <c r="AD113" s="38"/>
-      <c r="AE113" s="38"/>
-      <c r="AF113" s="38"/>
-      <c r="AG113" s="38"/>
-      <c r="AH113" s="38"/>
-      <c r="AI113" s="38"/>
-      <c r="AJ113" s="38"/>
-      <c r="AK113" s="38"/>
-      <c r="AL113" s="38"/>
-      <c r="AM113" s="38"/>
-      <c r="AN113" s="38"/>
-      <c r="AO113" s="38"/>
-      <c r="AP113" s="38"/>
-      <c r="AQ113" s="38"/>
-      <c r="AR113" s="38"/>
-      <c r="AS113" s="38"/>
-      <c r="AT113" s="38"/>
-      <c r="AU113" s="38"/>
-      <c r="AV113" s="38"/>
-      <c r="AW113" s="38"/>
-      <c r="AX113" s="38"/>
-      <c r="AY113" s="38"/>
-      <c r="AZ113" s="38"/>
-      <c r="BA113" s="38"/>
-      <c r="BB113" s="38"/>
-      <c r="BC113" s="38"/>
-      <c r="BD113" s="38"/>
-      <c r="BE113" s="38"/>
-      <c r="BF113" s="38"/>
-      <c r="BG113" s="38"/>
-      <c r="BH113" s="38"/>
-      <c r="BI113" s="38"/>
-      <c r="BJ113" s="38"/>
-      <c r="BK113" s="38"/>
-      <c r="BL113" s="38"/>
-      <c r="BM113" s="38"/>
+      <c r="J113" s="38" t="str">
+        <f t="shared" ref="J113:S116" ca="1" si="68">IF(AND($D113="Goal",J$5&gt;=$G113,J$5&lt;=$G113+$H113-1),2,IF(AND($D113="Milestone",J$5&gt;=$G113,J$5&lt;=$G113+$H113-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="K113" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="L113" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="M113" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="N113" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="O113" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="P113" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="Q113" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="R113" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="S113" s="38" t="str">
+        <f t="shared" ca="1" si="68"/>
+        <v/>
+      </c>
+      <c r="T113" s="38" t="str">
+        <f t="shared" ref="T113:AC116" ca="1" si="69">IF(AND($D113="Goal",T$5&gt;=$G113,T$5&lt;=$G113+$H113-1),2,IF(AND($D113="Milestone",T$5&gt;=$G113,T$5&lt;=$G113+$H113-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="U113" s="38" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="V113" s="38" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="W113" s="38" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="X113" s="38" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="Y113" s="38" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="Z113" s="38" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="AA113" s="38" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="AB113" s="38" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="AC113" s="38" t="str">
+        <f t="shared" ca="1" si="69"/>
+        <v/>
+      </c>
+      <c r="AD113" s="38" t="str">
+        <f t="shared" ref="AD113:AM116" ca="1" si="70">IF(AND($D113="Goal",AD$5&gt;=$G113,AD$5&lt;=$G113+$H113-1),2,IF(AND($D113="Milestone",AD$5&gt;=$G113,AD$5&lt;=$G113+$H113-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AE113" s="38" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="AF113" s="38" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="AG113" s="38" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="AH113" s="38" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="AI113" s="38" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="AJ113" s="38" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="AK113" s="38" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="AL113" s="38" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="AM113" s="38" t="str">
+        <f t="shared" ca="1" si="70"/>
+        <v/>
+      </c>
+      <c r="AN113" s="38" t="str">
+        <f t="shared" ref="AN113:AW116" ca="1" si="71">IF(AND($D113="Goal",AN$5&gt;=$G113,AN$5&lt;=$G113+$H113-1),2,IF(AND($D113="Milestone",AN$5&gt;=$G113,AN$5&lt;=$G113+$H113-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AO113" s="38" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AP113" s="38" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AQ113" s="38" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AR113" s="38" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AS113" s="38" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AT113" s="38" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AU113" s="38" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AV113" s="38" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AW113" s="38" t="str">
+        <f t="shared" ca="1" si="71"/>
+        <v/>
+      </c>
+      <c r="AX113" s="38" t="str">
+        <f t="shared" ref="AX113:BG116" ca="1" si="72">IF(AND($D113="Goal",AX$5&gt;=$G113,AX$5&lt;=$G113+$H113-1),2,IF(AND($D113="Milestone",AX$5&gt;=$G113,AX$5&lt;=$G113+$H113-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="AY113" s="38" t="str">
+        <f t="shared" ca="1" si="72"/>
+        <v/>
+      </c>
+      <c r="AZ113" s="38" t="str">
+        <f t="shared" ca="1" si="72"/>
+        <v/>
+      </c>
+      <c r="BA113" s="38" t="str">
+        <f t="shared" ca="1" si="72"/>
+        <v/>
+      </c>
+      <c r="BB113" s="38" t="str">
+        <f t="shared" ca="1" si="72"/>
+        <v/>
+      </c>
+      <c r="BC113" s="38" t="str">
+        <f t="shared" ca="1" si="72"/>
+        <v/>
+      </c>
+      <c r="BD113" s="38" t="str">
+        <f t="shared" ca="1" si="72"/>
+        <v/>
+      </c>
+      <c r="BE113" s="38" t="str">
+        <f t="shared" ca="1" si="72"/>
+        <v/>
+      </c>
+      <c r="BF113" s="38" t="str">
+        <f t="shared" ca="1" si="72"/>
+        <v/>
+      </c>
+      <c r="BG113" s="38" t="str">
+        <f t="shared" ca="1" si="72"/>
+        <v/>
+      </c>
+      <c r="BH113" s="38" t="str">
+        <f t="shared" ref="BH113:BM116" ca="1" si="73">IF(AND($D113="Goal",BH$5&gt;=$G113,BH$5&lt;=$G113+$H113-1),2,IF(AND($D113="Milestone",BH$5&gt;=$G113,BH$5&lt;=$G113+$H113-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="BI113" s="38" t="str">
+        <f t="shared" ca="1" si="73"/>
+        <v/>
+      </c>
+      <c r="BJ113" s="38" t="str">
+        <f t="shared" ca="1" si="73"/>
+        <v/>
+      </c>
+      <c r="BK113" s="38" t="str">
+        <f t="shared" ca="1" si="73"/>
+        <v/>
+      </c>
+      <c r="BL113" s="38" t="str">
+        <f t="shared" ca="1" si="73"/>
+        <v/>
+      </c>
+      <c r="BM113" s="38" t="str">
+        <f t="shared" ca="1" si="73"/>
+        <v/>
+      </c>
     </row>
     <row r="114" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41"/>
       <c r="D114" s="34"/>
-      <c r="E114" s="34">
-        <f>SUBTOTAL(109,E104:E113)</f>
-        <v>128</v>
-      </c>
+      <c r="E114" s="34"/>
       <c r="F114" s="31"/>
       <c r="G114" s="32"/>
       <c r="H114" s="33"/>
       <c r="I114" s="26"/>
       <c r="J114" s="38" t="str">
-        <f t="shared" ref="J114:S117" ca="1" si="68">IF(AND($D114="Goal",J$5&gt;=$G114,J$5&lt;=$G114+$H114-1),2,IF(AND($D114="Milestone",J$5&gt;=$G114,J$5&lt;=$G114+$H114-1),1,""))</f>
+        <f t="shared" ca="1" si="68"/>
         <v/>
       </c>
       <c r="K114" s="38" t="str">
@@ -25877,7 +26066,7 @@
         <v/>
       </c>
       <c r="T114" s="38" t="str">
-        <f t="shared" ref="T114:AC117" ca="1" si="69">IF(AND($D114="Goal",T$5&gt;=$G114,T$5&lt;=$G114+$H114-1),2,IF(AND($D114="Milestone",T$5&gt;=$G114,T$5&lt;=$G114+$H114-1),1,""))</f>
+        <f t="shared" ca="1" si="69"/>
         <v/>
       </c>
       <c r="U114" s="38" t="str">
@@ -25917,7 +26106,7 @@
         <v/>
       </c>
       <c r="AD114" s="38" t="str">
-        <f t="shared" ref="AD114:AM117" ca="1" si="70">IF(AND($D114="Goal",AD$5&gt;=$G114,AD$5&lt;=$G114+$H114-1),2,IF(AND($D114="Milestone",AD$5&gt;=$G114,AD$5&lt;=$G114+$H114-1),1,""))</f>
+        <f t="shared" ca="1" si="70"/>
         <v/>
       </c>
       <c r="AE114" s="38" t="str">
@@ -25957,7 +26146,7 @@
         <v/>
       </c>
       <c r="AN114" s="38" t="str">
-        <f t="shared" ref="AN114:AW117" ca="1" si="71">IF(AND($D114="Goal",AN$5&gt;=$G114,AN$5&lt;=$G114+$H114-1),2,IF(AND($D114="Milestone",AN$5&gt;=$G114,AN$5&lt;=$G114+$H114-1),1,""))</f>
+        <f t="shared" ca="1" si="71"/>
         <v/>
       </c>
       <c r="AO114" s="38" t="str">
@@ -25997,7 +26186,7 @@
         <v/>
       </c>
       <c r="AX114" s="38" t="str">
-        <f t="shared" ref="AX114:BG117" ca="1" si="72">IF(AND($D114="Goal",AX$5&gt;=$G114,AX$5&lt;=$G114+$H114-1),2,IF(AND($D114="Milestone",AX$5&gt;=$G114,AX$5&lt;=$G114+$H114-1),1,""))</f>
+        <f t="shared" ca="1" si="72"/>
         <v/>
       </c>
       <c r="AY114" s="38" t="str">
@@ -26037,7 +26226,7 @@
         <v/>
       </c>
       <c r="BH114" s="38" t="str">
-        <f t="shared" ref="BH114:BM117" ca="1" si="73">IF(AND($D114="Goal",BH$5&gt;=$G114,BH$5&lt;=$G114+$H114-1),2,IF(AND($D114="Milestone",BH$5&gt;=$G114,BH$5&lt;=$G114+$H114-1),1,""))</f>
+        <f t="shared" ca="1" si="73"/>
         <v/>
       </c>
       <c r="BI114" s="38" t="str">
@@ -26297,7 +26486,9 @@
       </c>
     </row>
     <row r="116" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
+      <c r="A116" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="B116" s="41"/>
       <c r="C116" s="41"/>
       <c r="D116" s="34"/>
@@ -26531,321 +26722,84 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="41"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="K117" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="L117" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="M117" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="N117" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="O117" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="P117" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="Q117" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="R117" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="S117" s="38" t="str">
-        <f t="shared" ca="1" si="68"/>
-        <v/>
-      </c>
-      <c r="T117" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="U117" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="V117" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="W117" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="X117" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="Y117" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="Z117" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="AA117" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="AB117" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="AC117" s="38" t="str">
-        <f t="shared" ca="1" si="69"/>
-        <v/>
-      </c>
-      <c r="AD117" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="AE117" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="AF117" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="AG117" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="AH117" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="AI117" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="AJ117" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="AK117" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="AL117" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="AM117" s="38" t="str">
-        <f t="shared" ca="1" si="70"/>
-        <v/>
-      </c>
-      <c r="AN117" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
-        <v/>
-      </c>
-      <c r="AO117" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
-        <v/>
-      </c>
-      <c r="AP117" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
-        <v/>
-      </c>
-      <c r="AQ117" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
-        <v/>
-      </c>
-      <c r="AR117" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
-        <v/>
-      </c>
-      <c r="AS117" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
-        <v/>
-      </c>
-      <c r="AT117" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
-        <v/>
-      </c>
-      <c r="AU117" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
-        <v/>
-      </c>
-      <c r="AV117" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
-        <v/>
-      </c>
-      <c r="AW117" s="38" t="str">
-        <f t="shared" ca="1" si="71"/>
-        <v/>
-      </c>
-      <c r="AX117" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v/>
-      </c>
-      <c r="AY117" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v/>
-      </c>
-      <c r="AZ117" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v/>
-      </c>
-      <c r="BA117" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v/>
-      </c>
-      <c r="BB117" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v/>
-      </c>
-      <c r="BC117" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v/>
-      </c>
-      <c r="BD117" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v/>
-      </c>
-      <c r="BE117" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v/>
-      </c>
-      <c r="BF117" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v/>
-      </c>
-      <c r="BG117" s="38" t="str">
-        <f t="shared" ca="1" si="72"/>
-        <v/>
-      </c>
-      <c r="BH117" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
-        <v/>
-      </c>
-      <c r="BI117" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
-        <v/>
-      </c>
-      <c r="BJ117" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
-        <v/>
-      </c>
-      <c r="BK117" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
-        <v/>
-      </c>
-      <c r="BL117" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
-        <v/>
-      </c>
-      <c r="BM117" s="38" t="str">
-        <f t="shared" ca="1" si="73"/>
-        <v/>
-      </c>
+    <row r="117" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="24"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="37"/>
+      <c r="L117" s="37"/>
+      <c r="M117" s="37"/>
+      <c r="N117" s="37"/>
+      <c r="O117" s="37"/>
+      <c r="P117" s="37"/>
+      <c r="Q117" s="37"/>
+      <c r="R117" s="37"/>
+      <c r="S117" s="37"/>
+      <c r="T117" s="37"/>
+      <c r="U117" s="37"/>
+      <c r="V117" s="37"/>
+      <c r="W117" s="37"/>
+      <c r="X117" s="37"/>
+      <c r="Y117" s="37"/>
+      <c r="Z117" s="37"/>
+      <c r="AA117" s="37"/>
+      <c r="AB117" s="37"/>
+      <c r="AC117" s="37"/>
+      <c r="AD117" s="37"/>
+      <c r="AE117" s="37"/>
+      <c r="AF117" s="37"/>
+      <c r="AG117" s="37"/>
+      <c r="AH117" s="37"/>
+      <c r="AI117" s="37"/>
+      <c r="AJ117" s="37"/>
+      <c r="AK117" s="37"/>
+      <c r="AL117" s="37"/>
+      <c r="AM117" s="37"/>
+      <c r="AN117" s="37"/>
+      <c r="AO117" s="37"/>
+      <c r="AP117" s="37"/>
+      <c r="AQ117" s="37"/>
+      <c r="AR117" s="37"/>
+      <c r="AS117" s="37"/>
+      <c r="AT117" s="37"/>
+      <c r="AU117" s="37"/>
+      <c r="AV117" s="37"/>
+      <c r="AW117" s="37"/>
+      <c r="AX117" s="37"/>
+      <c r="AY117" s="37"/>
+      <c r="AZ117" s="37"/>
+      <c r="BA117" s="37"/>
+      <c r="BB117" s="37"/>
+      <c r="BC117" s="37"/>
+      <c r="BD117" s="37"/>
+      <c r="BE117" s="37"/>
+      <c r="BF117" s="37"/>
+      <c r="BG117" s="37"/>
+      <c r="BH117" s="37"/>
+      <c r="BI117" s="37"/>
+      <c r="BJ117" s="37"/>
+      <c r="BK117" s="37"/>
+      <c r="BL117" s="37"/>
+      <c r="BM117" s="37"/>
     </row>
-    <row r="118" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="42"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="37"/>
-      <c r="K118" s="37"/>
-      <c r="L118" s="37"/>
-      <c r="M118" s="37"/>
-      <c r="N118" s="37"/>
-      <c r="O118" s="37"/>
-      <c r="P118" s="37"/>
-      <c r="Q118" s="37"/>
-      <c r="R118" s="37"/>
-      <c r="S118" s="37"/>
-      <c r="T118" s="37"/>
-      <c r="U118" s="37"/>
-      <c r="V118" s="37"/>
-      <c r="W118" s="37"/>
-      <c r="X118" s="37"/>
-      <c r="Y118" s="37"/>
-      <c r="Z118" s="37"/>
-      <c r="AA118" s="37"/>
-      <c r="AB118" s="37"/>
-      <c r="AC118" s="37"/>
-      <c r="AD118" s="37"/>
-      <c r="AE118" s="37"/>
-      <c r="AF118" s="37"/>
-      <c r="AG118" s="37"/>
-      <c r="AH118" s="37"/>
-      <c r="AI118" s="37"/>
-      <c r="AJ118" s="37"/>
-      <c r="AK118" s="37"/>
-      <c r="AL118" s="37"/>
-      <c r="AM118" s="37"/>
-      <c r="AN118" s="37"/>
-      <c r="AO118" s="37"/>
-      <c r="AP118" s="37"/>
-      <c r="AQ118" s="37"/>
-      <c r="AR118" s="37"/>
-      <c r="AS118" s="37"/>
-      <c r="AT118" s="37"/>
-      <c r="AU118" s="37"/>
-      <c r="AV118" s="37"/>
-      <c r="AW118" s="37"/>
-      <c r="AX118" s="37"/>
-      <c r="AY118" s="37"/>
-      <c r="AZ118" s="37"/>
-      <c r="BA118" s="37"/>
-      <c r="BB118" s="37"/>
-      <c r="BC118" s="37"/>
-      <c r="BD118" s="37"/>
-      <c r="BE118" s="37"/>
-      <c r="BF118" s="37"/>
-      <c r="BG118" s="37"/>
-      <c r="BH118" s="37"/>
-      <c r="BI118" s="37"/>
-      <c r="BJ118" s="37"/>
-      <c r="BK118" s="37"/>
-      <c r="BL118" s="37"/>
-      <c r="BM118" s="37"/>
+    <row r="118" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E118" s="5"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="4"/>
     </row>
     <row r="119" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E119" s="5"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="6"/>
+      <c r="E119" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -26859,7 +26813,7 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="T2:W2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F7:F8 F117 F89:F92 F98 F73:F74 F95 F104 F84:F87 F76:F77 F10 F22:F43 F45:F46 F52:F58 F49:F50 F61:F71">
+  <conditionalFormatting sqref="F7:F8 F116 F88:F91 F97 F72:F73 F103 F83:F86 F75:F76 F10 F22:F43 F45:F46 F52:F58 F49:F50 F61:F70 F94:F95">
     <cfRule type="dataBar" priority="254">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -26873,57 +26827,57 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:BM8 J117:BM118 J89:BM92 J98:BM98 J73:BM74 J95:BM95 J104:BM104 J84:BM87 J76:BM77 J10:BM10 J22:BM58 J61:BM71">
-    <cfRule type="expression" dxfId="74" priority="247">
+  <conditionalFormatting sqref="J5:BM8 J116:BM117 J88:BM91 J97:BM97 J72:BM73 J103:BM103 J83:BM86 J75:BM76 J10:BM10 J22:BM58 J61:BM70 J94:BM95">
+    <cfRule type="expression" dxfId="73" priority="247">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="73" priority="253">
+    <cfRule type="expression" dxfId="72" priority="253">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:BM4">
-    <cfRule type="expression" dxfId="72" priority="249">
+    <cfRule type="expression" dxfId="71" priority="249">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BM4">
-    <cfRule type="expression" dxfId="71" priority="248">
+    <cfRule type="expression" dxfId="70" priority="248">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:BM8 J10:BM10 J22:BM117">
-    <cfRule type="expression" dxfId="70" priority="270" stopIfTrue="1">
+  <conditionalFormatting sqref="J8:BM8 J10:BM10 J22:BM116">
+    <cfRule type="expression" dxfId="69" priority="270" stopIfTrue="1">
       <formula>AND($D8="Low risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="289" stopIfTrue="1">
       <formula>AND($D8="High risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="307" stopIfTrue="1">
       <formula>AND($D8="On track",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="308" stopIfTrue="1">
       <formula>AND($D8="Med risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="309" stopIfTrue="1">
       <formula>AND(LEN($D8)=0,J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J118:BM118">
-    <cfRule type="expression" dxfId="65" priority="317" stopIfTrue="1">
+  <conditionalFormatting sqref="J117:BM117">
+    <cfRule type="expression" dxfId="64" priority="317" stopIfTrue="1">
       <formula>AND(#REF!="Low risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="318" stopIfTrue="1">
       <formula>AND(#REF!="High risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="319" stopIfTrue="1">
       <formula>AND(#REF!="On track",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="320" stopIfTrue="1">
       <formula>AND(#REF!="Med risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="321" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26942,28 +26896,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="60" priority="238">
+    <cfRule type="expression" dxfId="59" priority="238">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="59" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="240" stopIfTrue="1">
       <formula>AND($D9="Low risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="241" stopIfTrue="1">
       <formula>AND($D9="High risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="242" stopIfTrue="1">
       <formula>AND($D9="On track",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="243" stopIfTrue="1">
       <formula>AND($D9="Med risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="244" stopIfTrue="1">
       <formula>AND(LEN($D9)=0,J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:F79 F81">
+  <conditionalFormatting sqref="F77:F78 F80">
     <cfRule type="dataBar" priority="221">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -26977,12 +26931,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J81:BM81 J78:BM79">
-    <cfRule type="expression" dxfId="54" priority="222">
+  <conditionalFormatting sqref="J80:BM80 J77:BM78">
+    <cfRule type="expression" dxfId="53" priority="222">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
+  <conditionalFormatting sqref="F82">
     <cfRule type="dataBar" priority="214">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -26996,12 +26950,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J83:GC83">
-    <cfRule type="expression" dxfId="53" priority="213">
+  <conditionalFormatting sqref="J82:GC82">
+    <cfRule type="expression" dxfId="52" priority="213">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F80 F82">
+  <conditionalFormatting sqref="F79 F81">
     <cfRule type="dataBar" priority="205">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27015,8 +26969,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J82:BM82 J80:BM80">
-    <cfRule type="expression" dxfId="52" priority="206">
+  <conditionalFormatting sqref="J81:BM81 J79:BM79">
+    <cfRule type="expression" dxfId="51" priority="206">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27035,11 +26989,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59:BM60">
-    <cfRule type="expression" dxfId="51" priority="198">
+    <cfRule type="expression" dxfId="50" priority="198">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88">
+  <conditionalFormatting sqref="F87">
     <cfRule type="dataBar" priority="190">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27053,12 +27007,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J88:GC88">
-    <cfRule type="expression" dxfId="50" priority="189">
+  <conditionalFormatting sqref="J87:GC87">
+    <cfRule type="expression" dxfId="49" priority="189">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99:F100 F102:F104 F107 F114:F116">
+  <conditionalFormatting sqref="F98:F99 F101:F103 F106 F113:F115">
     <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27072,12 +27026,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J99:GC100 J102:GC104 J107:GC107 J114:GC116">
-    <cfRule type="expression" dxfId="49" priority="182">
+  <conditionalFormatting sqref="J98:GC99 J101:GC103 J106:GC106 J113:GC115">
+    <cfRule type="expression" dxfId="48" priority="182">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101">
+  <conditionalFormatting sqref="F100">
     <cfRule type="dataBar" priority="173">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27091,12 +27045,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J101:GC101">
-    <cfRule type="expression" dxfId="48" priority="174">
+  <conditionalFormatting sqref="J100:GC100">
+    <cfRule type="expression" dxfId="47" priority="174">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F96">
     <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27110,12 +27064,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J97:GC97">
-    <cfRule type="expression" dxfId="47" priority="165">
+  <conditionalFormatting sqref="J96:GC96">
+    <cfRule type="expression" dxfId="46" priority="165">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
+  <conditionalFormatting sqref="F71">
     <cfRule type="dataBar" priority="158">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27129,12 +27083,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J72:GC72">
-    <cfRule type="expression" dxfId="46" priority="157">
+  <conditionalFormatting sqref="J71:GC71">
+    <cfRule type="expression" dxfId="45" priority="157">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
+  <conditionalFormatting sqref="F93">
     <cfRule type="dataBar" priority="150">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27148,12 +27102,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J94:BM94">
-    <cfRule type="expression" dxfId="45" priority="149">
+  <conditionalFormatting sqref="J93:BM93">
+    <cfRule type="expression" dxfId="44" priority="149">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:F106">
+  <conditionalFormatting sqref="F104:F105">
     <cfRule type="dataBar" priority="142">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27167,12 +27121,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J105:GC106">
-    <cfRule type="expression" dxfId="44" priority="141">
+  <conditionalFormatting sqref="J104:GC105">
+    <cfRule type="expression" dxfId="43" priority="141">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:F109">
+  <conditionalFormatting sqref="F107:F108">
     <cfRule type="dataBar" priority="134">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27186,12 +27140,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J108:GC109">
-    <cfRule type="expression" dxfId="43" priority="133">
+  <conditionalFormatting sqref="J107:GC108">
+    <cfRule type="expression" dxfId="42" priority="133">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112">
+  <conditionalFormatting sqref="F111">
     <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27205,12 +27159,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J112:GC112">
-    <cfRule type="expression" dxfId="42" priority="125">
+  <conditionalFormatting sqref="J111:GC111">
+    <cfRule type="expression" dxfId="41" priority="125">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113">
+  <conditionalFormatting sqref="F112">
     <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27224,31 +27178,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J113:GC113">
-    <cfRule type="expression" dxfId="41" priority="117">
+  <conditionalFormatting sqref="J112:GC112">
+    <cfRule type="expression" dxfId="40" priority="117">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
-    <cfRule type="dataBar" priority="110">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{292B9690-C8FA-40EF-B2E4-3919B9536A3E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96:BM96">
-    <cfRule type="expression" dxfId="40" priority="109">
-      <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
+  <conditionalFormatting sqref="F74">
     <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27262,12 +27197,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J75:BM75">
+  <conditionalFormatting sqref="J74:BM74">
     <cfRule type="expression" dxfId="39" priority="101">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111">
+  <conditionalFormatting sqref="F110">
     <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27281,12 +27216,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J111:BM111">
+  <conditionalFormatting sqref="J110:BM110">
     <cfRule type="expression" dxfId="38" priority="93">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93">
+  <conditionalFormatting sqref="F92">
     <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27300,12 +27235,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J93:BM93">
+  <conditionalFormatting sqref="J92:BM92">
     <cfRule type="expression" dxfId="37" priority="61">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110">
+  <conditionalFormatting sqref="F109">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -27319,7 +27254,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J110:GC110">
+  <conditionalFormatting sqref="J109:GC109">
     <cfRule type="expression" dxfId="36" priority="69">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
@@ -27600,10 +27535,10 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="G4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D9 D11:D24 D59:D117" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D9 D11:D24 D59:D116" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Goal,Milestone,On track, Low risk, Med risk, High risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D10 D70 D22:D47 D48:D58" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D10 D70 D22:D58" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Goal,Milestone,On track, Low risk, Med risk, High risk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27658,7 +27593,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F7:F8 F117 F89:F92 F98 F73:F74 F95 F104 F84:F87 F76:F77 F10 F22:F43 F45:F46 F52:F58 F49:F50 F61:F71</xm:sqref>
+          <xm:sqref>F7:F8 F116 F88:F91 F97 F72:F73 F103 F83:F86 F75:F76 F10 F22:F43 F45:F46 F52:F58 F49:F50 F61:F70 F94:F95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AB15B3D1-2A05-48F7-BD43-B741E186FE95}">
@@ -27688,7 +27623,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F78:F79 F81</xm:sqref>
+          <xm:sqref>F77:F78 F80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DE2EEDB3-74BE-439B-8BDB-7DFDA8169FC0}">
@@ -27703,7 +27638,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F83</xm:sqref>
+          <xm:sqref>F82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DA7E074-67DF-4101-BD08-BF4E7C025561}">
@@ -27718,7 +27653,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F80 F82</xm:sqref>
+          <xm:sqref>F79 F81</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20AD0325-5A08-4704-8CC7-A6E9457B1E3F}">
@@ -27748,7 +27683,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F88</xm:sqref>
+          <xm:sqref>F87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4E5B35EE-C5D9-44CB-8B8A-F68FE56F654D}">
@@ -27763,7 +27698,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F99:F100 F102:F104 F107 F114:F116</xm:sqref>
+          <xm:sqref>F98:F99 F101:F103 F106 F113:F115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E907EE82-9BFA-4154-BA99-9E3F4D50179D}">
@@ -27778,7 +27713,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F101</xm:sqref>
+          <xm:sqref>F100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{024081F2-43F6-443F-B26C-B3DBC40FD2C4}">
@@ -27793,7 +27728,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F97</xm:sqref>
+          <xm:sqref>F96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1EC88061-62A8-43D7-8F0A-93CD6FB29F0A}">
@@ -27808,7 +27743,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F72</xm:sqref>
+          <xm:sqref>F71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{28C8AF4A-6D9D-4A0C-A1F5-5A59DE30600D}">
@@ -27823,7 +27758,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F94</xm:sqref>
+          <xm:sqref>F93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{897AE99D-B92A-4BE7-8B0E-62523CB22F17}">
@@ -27838,7 +27773,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F105:F106</xm:sqref>
+          <xm:sqref>F104:F105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{60890710-5300-4C82-82EC-4901B5E4785E}">
@@ -27853,7 +27788,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F108:F109</xm:sqref>
+          <xm:sqref>F107:F108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A98051D5-9E48-42AC-B5BA-FCC4DFA85C73}">
@@ -27868,7 +27803,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F112</xm:sqref>
+          <xm:sqref>F111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FB666FCE-B643-41CC-A6F3-DE225639E380}">
@@ -27883,22 +27818,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F113</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{292B9690-C8FA-40EF-B2E4-3919B9536A3E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F96</xm:sqref>
+          <xm:sqref>F112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7D131880-EF7B-4C8B-9655-98AFA8E5B90E}">
@@ -27913,7 +27833,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F75</xm:sqref>
+          <xm:sqref>F74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8E51943A-8739-4421-8F28-B2351642D25F}">
@@ -27928,7 +27848,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F111</xm:sqref>
+          <xm:sqref>F110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6359176B-902E-4CBF-94AD-B0471FE3997D}">
@@ -27943,7 +27863,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F93</xm:sqref>
+          <xm:sqref>F92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4ECC6297-F486-457C-AD78-59AACF32CA46}">
@@ -27958,7 +27878,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F110</xm:sqref>
+          <xm:sqref>F109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8ACFDE13-4E52-4E8F-853F-278A22F3B649}">
@@ -28127,7 +28047,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J118:BM118</xm:sqref>
+          <xm:sqref>J117:BM117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="239" id="{03DA8032-3E5A-4348-8737-FACB24C58C7D}">
@@ -28165,7 +28085,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J81:BM81 J78:BM79</xm:sqref>
+          <xm:sqref>J80:BM80 J77:BM78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="220" id="{0F99AFDB-3E88-4EFF-8022-B626D3C66F65}">
@@ -28184,7 +28104,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J83:BM83</xm:sqref>
+          <xm:sqref>J82:BM82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="207" id="{EE50C122-2903-4C7B-B872-C5C3C41F343A}">
@@ -28203,7 +28123,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J82:BM82 J80:BM80</xm:sqref>
+          <xm:sqref>J81:BM81 J79:BM79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="199" id="{245D6783-BA61-466D-B247-0CD747F0DAD7}">
@@ -28241,7 +28161,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J117:BM117 J104:BM104 J8:BM8 J89:BM92 J98:BM98 J73:BM74 J95:BM95 J84:BM87 J76:BM77 J10:BM10 J22:BM58 J61:BM71</xm:sqref>
+          <xm:sqref>J116:BM116 J103:BM103 J8:BM8 J88:BM91 J97:BM97 J72:BM73 J94:BM94 J83:BM86 J75:BM76 J10:BM10 J22:BM58 J61:BM70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="196" id="{085A3FF5-1243-45B7-A70C-D34452A2D8D7}">
@@ -28260,7 +28180,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J88:BM88</xm:sqref>
+          <xm:sqref>J87:BM87</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="183" id="{FE097879-5960-4272-998A-6FD9844EE889}">
@@ -28279,7 +28199,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J114:BM116 J99:BM100 J102:BM103 J107:BM107</xm:sqref>
+          <xm:sqref>J113:BM115 J98:BM99 J101:BM102 J106:BM106</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="175" id="{D28BC5B3-7E33-446B-B026-13D776884AA0}">
@@ -28298,7 +28218,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J101:BM101</xm:sqref>
+          <xm:sqref>J100:BM100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="172" id="{1A433099-825F-427E-A33F-D1C109BED0CC}">
@@ -28317,7 +28237,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J97:BM97</xm:sqref>
+          <xm:sqref>J96:BM96</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="164" id="{27367725-6913-4DBF-9A9F-F3CC48904410}">
@@ -28336,7 +28256,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J72:BM72</xm:sqref>
+          <xm:sqref>J71:BM71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="156" id="{879FE731-A465-40E9-81AA-6B31A54BF3CA}">
@@ -28355,7 +28275,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J94:BM94</xm:sqref>
+          <xm:sqref>J93:BM93</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="148" id="{54FE0357-47DA-41F8-8154-853D650EB0BA}">
@@ -28374,7 +28294,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J105:BM106</xm:sqref>
+          <xm:sqref>J104:BM105</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="132" id="{EEF08E67-1B2F-4EA1-A44D-970B0AD110CA}">
@@ -28393,7 +28313,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J112:BM112</xm:sqref>
+          <xm:sqref>J111:BM111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="124" id="{13F66245-771B-48EA-A5D3-2718736A6B30}">
@@ -28412,7 +28332,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J113:BM113</xm:sqref>
+          <xm:sqref>J112:BM112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="402" id="{C301259E-5033-4A56-A719-2062DE7D0A19}">
@@ -28431,26 +28351,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J108:BM109</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="111" id="{FDB838CD-B891-4E13-915F-587187ED6DF1}">
-            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Flags" iconId="1"/>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J96:BM96</xm:sqref>
+          <xm:sqref>J107:BM108</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="103" id="{F1AA3492-E31B-427F-BDE4-C72EA0304B6B}">
@@ -28469,7 +28370,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J75:BM75</xm:sqref>
+          <xm:sqref>J74:BM74</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="95" id="{CAD5B80A-E3AE-44C2-A6A8-F4F6608A13F3}">
@@ -28488,7 +28389,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J111:BM111</xm:sqref>
+          <xm:sqref>J110:BM110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="76" id="{40246DCC-6E5A-4A37-B6D6-5B654D582B5E}">
@@ -28507,7 +28408,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J110:BM110</xm:sqref>
+          <xm:sqref>J109:BM109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="68" id="{B00FCB31-9872-4122-A4DC-0BBCF2423A6C}">
@@ -28526,7 +28427,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J93:BM93</xm:sqref>
+          <xm:sqref>J92:BM92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="52" id="{4272E597-1EBE-45FD-A260-CC36A44DAD32}">
@@ -28642,6 +28543,25 @@
           </x14:cfRule>
           <xm:sqref>J20:BM21</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="429" id="{FDB838CD-B891-4E13-915F-587187ED6DF1}">
+            <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3Flags" iconId="1"/>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>J95:BM95</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/Planning Report/application sprint planner sprint1 23.12.19.xlsx
+++ b/Planning Report/application sprint planner sprint1 23.12.19.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070A661F-E250-49F5-9743-AEA356466E96}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7BC850-0DD2-4227-8FFC-305821DC18D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="420" windowWidth="22395" windowHeight="12030" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="705" windowWidth="24345" windowHeight="14040" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1433,6 +1433,40 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="90">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2904,40 +2938,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3259,10 +3259,10 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone description" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C2AA6DD8-DBD1-4E89-A1EF-3287225D3E74}" name="Required" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Estimated Duration" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -3542,8 +3542,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BM119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Y73" sqref="Y73"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B58" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17488,7 +17488,7 @@
         <v>17</v>
       </c>
       <c r="E72" s="34">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="32"/>
@@ -26828,56 +26828,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:BM8 J116:BM117 J88:BM91 J97:BM97 J72:BM73 J103:BM103 J83:BM86 J75:BM76 J10:BM10 J22:BM58 J61:BM70 J94:BM95">
-    <cfRule type="expression" dxfId="73" priority="247">
+    <cfRule type="expression" dxfId="77" priority="247">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:AN4">
-    <cfRule type="expression" dxfId="72" priority="253">
+    <cfRule type="expression" dxfId="76" priority="253">
       <formula>J$5&lt;=EOMONTH($J$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:BM4">
-    <cfRule type="expression" dxfId="71" priority="249">
+    <cfRule type="expression" dxfId="75" priority="249">
       <formula>AND(K$5&lt;=EOMONTH($J$5,2),K$5&gt;EOMONTH($J$5,0),K$5&gt;EOMONTH($J$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BM4">
-    <cfRule type="expression" dxfId="70" priority="248">
+    <cfRule type="expression" dxfId="74" priority="248">
       <formula>AND(J$5&lt;=EOMONTH($J$5,1),J$5&gt;EOMONTH($J$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:BM8 J10:BM10 J22:BM116">
-    <cfRule type="expression" dxfId="69" priority="270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="270" stopIfTrue="1">
       <formula>AND($D8="Low risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="289" stopIfTrue="1">
       <formula>AND($D8="High risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="307" stopIfTrue="1">
       <formula>AND($D8="On track",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="308" stopIfTrue="1">
       <formula>AND($D8="Med risk",J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="309" stopIfTrue="1">
       <formula>AND(LEN($D8)=0,J$5&gt;=$G8,J$5&lt;=$G8+$H8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J117:BM117">
-    <cfRule type="expression" dxfId="64" priority="317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="317" stopIfTrue="1">
       <formula>AND(#REF!="Low risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="318" stopIfTrue="1">
       <formula>AND(#REF!="High risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="319" stopIfTrue="1">
       <formula>AND(#REF!="On track",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="320" stopIfTrue="1">
       <formula>AND(#REF!="Med risk",J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="321" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,J$5&gt;=#REF!,J$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26896,24 +26896,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="59" priority="238">
+    <cfRule type="expression" dxfId="63" priority="238">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:BM9">
-    <cfRule type="expression" dxfId="58" priority="240" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="240" stopIfTrue="1">
       <formula>AND($D9="Low risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="241" stopIfTrue="1">
       <formula>AND($D9="High risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="242" stopIfTrue="1">
       <formula>AND($D9="On track",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="243" stopIfTrue="1">
       <formula>AND($D9="Med risk",J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="244" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="244" stopIfTrue="1">
       <formula>AND(LEN($D9)=0,J$5&gt;=$G9,J$5&lt;=$G9+$H9-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26932,7 +26932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80:BM80 J77:BM78">
-    <cfRule type="expression" dxfId="53" priority="222">
+    <cfRule type="expression" dxfId="57" priority="222">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26951,7 +26951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82:GC82">
-    <cfRule type="expression" dxfId="52" priority="213">
+    <cfRule type="expression" dxfId="56" priority="213">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26970,7 +26970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:BM81 J79:BM79">
-    <cfRule type="expression" dxfId="51" priority="206">
+    <cfRule type="expression" dxfId="55" priority="206">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26989,7 +26989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59:BM60">
-    <cfRule type="expression" dxfId="50" priority="198">
+    <cfRule type="expression" dxfId="54" priority="198">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27008,7 +27008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J87:GC87">
-    <cfRule type="expression" dxfId="49" priority="189">
+    <cfRule type="expression" dxfId="53" priority="189">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27027,7 +27027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98:GC99 J101:GC103 J106:GC106 J113:GC115">
-    <cfRule type="expression" dxfId="48" priority="182">
+    <cfRule type="expression" dxfId="52" priority="182">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27046,7 +27046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J100:GC100">
-    <cfRule type="expression" dxfId="47" priority="174">
+    <cfRule type="expression" dxfId="51" priority="174">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27065,7 +27065,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96:GC96">
-    <cfRule type="expression" dxfId="46" priority="165">
+    <cfRule type="expression" dxfId="50" priority="165">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27084,7 +27084,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71:GC71">
-    <cfRule type="expression" dxfId="45" priority="157">
+    <cfRule type="expression" dxfId="49" priority="157">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27103,7 +27103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93:BM93">
-    <cfRule type="expression" dxfId="44" priority="149">
+    <cfRule type="expression" dxfId="48" priority="149">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27122,7 +27122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104:GC105">
-    <cfRule type="expression" dxfId="43" priority="141">
+    <cfRule type="expression" dxfId="47" priority="141">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27141,7 +27141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J107:GC108">
-    <cfRule type="expression" dxfId="42" priority="133">
+    <cfRule type="expression" dxfId="46" priority="133">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27160,7 +27160,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111:GC111">
-    <cfRule type="expression" dxfId="41" priority="125">
+    <cfRule type="expression" dxfId="45" priority="125">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27179,7 +27179,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J112:GC112">
-    <cfRule type="expression" dxfId="40" priority="117">
+    <cfRule type="expression" dxfId="44" priority="117">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27198,7 +27198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74:BM74">
-    <cfRule type="expression" dxfId="39" priority="101">
+    <cfRule type="expression" dxfId="43" priority="101">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27217,7 +27217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J110:BM110">
-    <cfRule type="expression" dxfId="38" priority="93">
+    <cfRule type="expression" dxfId="42" priority="93">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27236,7 +27236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J92:BM92">
-    <cfRule type="expression" dxfId="37" priority="61">
+    <cfRule type="expression" dxfId="41" priority="61">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27255,7 +27255,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J109:GC109">
-    <cfRule type="expression" dxfId="36" priority="69">
+    <cfRule type="expression" dxfId="40" priority="69">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27274,24 +27274,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="35" priority="45">
+    <cfRule type="expression" dxfId="39" priority="45">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:BM11">
-    <cfRule type="expression" dxfId="34" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="47" stopIfTrue="1">
       <formula>AND($D11="Low risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="48" stopIfTrue="1">
       <formula>AND($D11="High risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="49" stopIfTrue="1">
       <formula>AND($D11="On track",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="50" stopIfTrue="1">
       <formula>AND($D11="Med risk",J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="51" stopIfTrue="1">
       <formula>AND(LEN($D11)=0,J$5&gt;=$G11,J$5&lt;=$G11+$H11-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27310,24 +27310,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="29" priority="37">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12:BM14">
-    <cfRule type="expression" dxfId="28" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
       <formula>AND($D12="Low risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
       <formula>AND($D12="High risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="41" stopIfTrue="1">
       <formula>AND($D12="On track",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="42" stopIfTrue="1">
       <formula>AND($D12="Med risk",J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
       <formula>AND(LEN($D12)=0,J$5&gt;=$G12,J$5&lt;=$G12+$H12-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27346,24 +27346,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="23" priority="29">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:BM15">
-    <cfRule type="expression" dxfId="22" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="31" stopIfTrue="1">
       <formula>AND($D15="Low risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="32" stopIfTrue="1">
       <formula>AND($D15="High risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="33" stopIfTrue="1">
       <formula>AND($D15="On track",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="34" stopIfTrue="1">
       <formula>AND($D15="Med risk",J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="35" stopIfTrue="1">
       <formula>AND(LEN($D15)=0,J$5&gt;=$G15,J$5&lt;=$G15+$H15-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27382,46 +27382,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:BM18">
-    <cfRule type="expression" dxfId="16" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
       <formula>AND($D16="Low risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="24" stopIfTrue="1">
       <formula>AND($D16="High risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="25" stopIfTrue="1">
       <formula>AND($D16="On track",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="26" stopIfTrue="1">
       <formula>AND($D16="Med risk",J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="27" stopIfTrue="1">
       <formula>AND(LEN($D16)=0,J$5&gt;=$G16,J$5&lt;=$G16+$H16-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>AND($D19="Low risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>AND($D19="High risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="18" stopIfTrue="1">
       <formula>AND($D19="On track",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
       <formula>AND($D19="Med risk",J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
       <formula>AND(LEN($D19)=0,J$5&gt;=$G19,J$5&lt;=$G19+$H19-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19:BM19">
-    <cfRule type="expression" dxfId="6" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27440,19 +27440,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:BM21">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="8" stopIfTrue="1">
       <formula>AND($D20="Low risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>AND($D20="High risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>AND($D20="On track",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>AND($D20="Med risk",J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
       <formula>AND(LEN($D20)=0,J$5&gt;=$G20,J$5&lt;=$G20+$H20-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27471,7 +27471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:GC21">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND(TODAY()&gt;=J$5,TODAY()&lt;K$5)</formula>
     </cfRule>
   </conditionalFormatting>
